--- a/e4e3/US_beveridge_data.xlsx
+++ b/e4e3/US_beveridge_data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/finn/Documents/GitHub/data/e4e3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2B9252B-D857-A24E-B1A8-7DABE8CD82A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDA9035-7DA0-DE45-B61E-EE065919EAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="18000" windowHeight="22500" xr2:uid="{8C9536DE-774F-9C49-B597-DF7C2A9C36BB}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="32260" windowHeight="22500" xr2:uid="{8C9536DE-774F-9C49-B597-DF7C2A9C36BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -99,6 +99,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -158,7 +161,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,7 +479,7 @@
   <dimension ref="A1:F266"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
-      <selection activeCell="F263" sqref="F263"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/e4e3/US_beveridge_data.xlsx
+++ b/e4e3/US_beveridge_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/finn/Documents/GitHub/data/e4e3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDA9035-7DA0-DE45-B61E-EE065919EAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B629C4D5-DAD9-B141-A4E2-EDB1A554E227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="32260" windowHeight="22500" xr2:uid="{8C9536DE-774F-9C49-B597-DF7C2A9C36BB}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{8C9536DE-774F-9C49-B597-DF7C2A9C36BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,9 +77,6 @@
     <t>2020s</t>
   </si>
   <si>
-    <t>Predident</t>
-  </si>
-  <si>
     <t>Clinton</t>
   </si>
   <si>
@@ -94,13 +91,16 @@
   <si>
     <t>Biden</t>
   </si>
+  <si>
+    <t>President</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -161,7 +161,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,7 +479,7 @@
   <dimension ref="A1:F266"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -506,7 +506,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -514,10 +514,10 @@
         <v>36861</v>
       </c>
       <c r="B2" s="3">
-        <v>3.6999999999999998E-2</v>
+        <v>3.6999999999999997</v>
       </c>
       <c r="C2" s="3">
-        <v>3.9E-2</v>
+        <v>3.9</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -526,7 +526,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -534,10 +534,10 @@
         <v>36892</v>
       </c>
       <c r="B3" s="3">
-        <v>3.7999999999999999E-2</v>
+        <v>3.8</v>
       </c>
       <c r="C3" s="3">
-        <v>4.2000000000000003E-2</v>
+        <v>4.2</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -546,7 +546,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -554,10 +554,10 @@
         <v>36923</v>
       </c>
       <c r="B4" s="3">
-        <v>3.6999999999999998E-2</v>
+        <v>3.6999999999999997</v>
       </c>
       <c r="C4" s="3">
-        <v>4.2000000000000003E-2</v>
+        <v>4.2</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -566,7 +566,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -574,10 +574,10 @@
         <v>36951</v>
       </c>
       <c r="B5" s="3">
-        <v>3.5000000000000003E-2</v>
+        <v>3.5000000000000004</v>
       </c>
       <c r="C5" s="3">
-        <v>4.2999999999999997E-2</v>
+        <v>4.3</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -586,7 +586,7 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -594,10 +594,10 @@
         <v>36982</v>
       </c>
       <c r="B6" s="3">
-        <v>3.4000000000000002E-2</v>
+        <v>3.4000000000000004</v>
       </c>
       <c r="C6" s="3">
-        <v>4.3999999999999997E-2</v>
+        <v>4.3999999999999995</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
@@ -606,7 +606,7 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -614,10 +614,10 @@
         <v>37012</v>
       </c>
       <c r="B7" s="3">
-        <v>3.2000000000000001E-2</v>
+        <v>3.2</v>
       </c>
       <c r="C7" s="3">
-        <v>4.2999999999999997E-2</v>
+        <v>4.3</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
@@ -626,7 +626,7 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -634,10 +634,10 @@
         <v>37043</v>
       </c>
       <c r="B8" s="3">
-        <v>3.2000000000000001E-2</v>
+        <v>3.2</v>
       </c>
       <c r="C8" s="3">
-        <v>4.4999999999999998E-2</v>
+        <v>4.5</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
@@ -646,7 +646,7 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -654,10 +654,10 @@
         <v>37073</v>
       </c>
       <c r="B9" s="3">
-        <v>3.3000000000000002E-2</v>
+        <v>3.3000000000000003</v>
       </c>
       <c r="C9" s="3">
-        <v>4.5999999999999999E-2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
@@ -666,7 +666,7 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -674,10 +674,10 @@
         <v>37104</v>
       </c>
       <c r="B10" s="3">
-        <v>0.03</v>
+        <v>3</v>
       </c>
       <c r="C10" s="3">
-        <v>4.9000000000000002E-2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
@@ -686,7 +686,7 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -694,10 +694,10 @@
         <v>37135</v>
       </c>
       <c r="B11" s="3">
-        <v>0.03</v>
+        <v>3</v>
       </c>
       <c r="C11" s="3">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
@@ -706,7 +706,7 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -714,10 +714,10 @@
         <v>37165</v>
       </c>
       <c r="B12" s="3">
-        <v>2.7E-2</v>
+        <v>2.7</v>
       </c>
       <c r="C12" s="3">
-        <v>5.2999999999999999E-2</v>
+        <v>5.3</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
@@ -726,7 +726,7 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -734,10 +734,10 @@
         <v>37196</v>
       </c>
       <c r="B13" s="3">
-        <v>2.8000000000000001E-2</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="C13" s="3">
-        <v>5.5E-2</v>
+        <v>5.5</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
@@ -746,7 +746,7 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -754,10 +754,10 @@
         <v>37226</v>
       </c>
       <c r="B14" s="3">
-        <v>2.7E-2</v>
+        <v>2.7</v>
       </c>
       <c r="C14" s="3">
-        <v>5.7000000000000002E-2</v>
+        <v>5.7</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
@@ -766,7 +766,7 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -774,10 +774,10 @@
         <v>37257</v>
       </c>
       <c r="B15" s="3">
-        <v>2.7E-2</v>
+        <v>2.7</v>
       </c>
       <c r="C15" s="3">
-        <v>5.7000000000000002E-2</v>
+        <v>5.7</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
@@ -786,7 +786,7 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -794,10 +794,10 @@
         <v>37288</v>
       </c>
       <c r="B16" s="3">
-        <v>2.5999999999999999E-2</v>
+        <v>2.6</v>
       </c>
       <c r="C16" s="3">
-        <v>5.7000000000000002E-2</v>
+        <v>5.7</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
@@ -806,7 +806,7 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -814,10 +814,10 @@
         <v>37316</v>
       </c>
       <c r="B17" s="3">
-        <v>2.7E-2</v>
+        <v>2.7</v>
       </c>
       <c r="C17" s="3">
-        <v>5.7000000000000002E-2</v>
+        <v>5.7</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
@@ -826,7 +826,7 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -834,10 +834,10 @@
         <v>37347</v>
       </c>
       <c r="B18" s="3">
-        <v>2.5999999999999999E-2</v>
+        <v>2.6</v>
       </c>
       <c r="C18" s="3">
-        <v>5.8999999999999997E-2</v>
+        <v>5.8999999999999995</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
@@ -846,7 +846,7 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -854,10 +854,10 @@
         <v>37377</v>
       </c>
       <c r="B19" s="3">
-        <v>2.5999999999999999E-2</v>
+        <v>2.6</v>
       </c>
       <c r="C19" s="3">
-        <v>5.8000000000000003E-2</v>
+        <v>5.8000000000000007</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
@@ -866,7 +866,7 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -874,10 +874,10 @@
         <v>37408</v>
       </c>
       <c r="B20" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>2.5</v>
       </c>
       <c r="C20" s="3">
-        <v>5.8000000000000003E-2</v>
+        <v>5.8000000000000007</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
@@ -886,7 +886,7 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -894,10 +894,10 @@
         <v>37438</v>
       </c>
       <c r="B21" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>2.5</v>
       </c>
       <c r="C21" s="3">
-        <v>5.8000000000000003E-2</v>
+        <v>5.8000000000000007</v>
       </c>
       <c r="D21" t="s">
         <v>5</v>
@@ -906,7 +906,7 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -914,10 +914,10 @@
         <v>37469</v>
       </c>
       <c r="B22" s="3">
-        <v>2.5999999999999999E-2</v>
+        <v>2.6</v>
       </c>
       <c r="C22" s="3">
-        <v>5.7000000000000002E-2</v>
+        <v>5.7</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
@@ -926,7 +926,7 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -934,10 +934,10 @@
         <v>37500</v>
       </c>
       <c r="B23" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>2.5</v>
       </c>
       <c r="C23" s="3">
-        <v>5.7000000000000002E-2</v>
+        <v>5.7</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
@@ -946,7 +946,7 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -954,10 +954,10 @@
         <v>37530</v>
       </c>
       <c r="B24" s="3">
-        <v>2.5999999999999999E-2</v>
+        <v>2.6</v>
       </c>
       <c r="C24" s="3">
-        <v>5.7000000000000002E-2</v>
+        <v>5.7</v>
       </c>
       <c r="D24" t="s">
         <v>5</v>
@@ -966,7 +966,7 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -974,10 +974,10 @@
         <v>37561</v>
       </c>
       <c r="B25" s="3">
-        <v>2.5999999999999999E-2</v>
+        <v>2.6</v>
       </c>
       <c r="C25" s="3">
-        <v>5.8999999999999997E-2</v>
+        <v>5.8999999999999995</v>
       </c>
       <c r="D25" t="s">
         <v>5</v>
@@ -986,7 +986,7 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -994,10 +994,10 @@
         <v>37591</v>
       </c>
       <c r="B26" s="3">
-        <v>2.4E-2</v>
+        <v>2.4</v>
       </c>
       <c r="C26" s="3">
-        <v>0.06</v>
+        <v>6</v>
       </c>
       <c r="D26" t="s">
         <v>5</v>
@@ -1006,7 +1006,7 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1014,10 +1014,10 @@
         <v>37622</v>
       </c>
       <c r="B27" s="3">
-        <v>2.5999999999999999E-2</v>
+        <v>2.6</v>
       </c>
       <c r="C27" s="3">
-        <v>5.8000000000000003E-2</v>
+        <v>5.8000000000000007</v>
       </c>
       <c r="D27" t="s">
         <v>5</v>
@@ -1026,7 +1026,7 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1034,10 +1034,10 @@
         <v>37653</v>
       </c>
       <c r="B28" s="3">
-        <v>2.4E-2</v>
+        <v>2.4</v>
       </c>
       <c r="C28" s="3">
-        <v>5.8999999999999997E-2</v>
+        <v>5.8999999999999995</v>
       </c>
       <c r="D28" t="s">
         <v>5</v>
@@ -1046,7 +1046,7 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1054,10 +1054,10 @@
         <v>37681</v>
       </c>
       <c r="B29" s="3">
-        <v>2.3E-2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C29" s="3">
-        <v>5.8999999999999997E-2</v>
+        <v>5.8999999999999995</v>
       </c>
       <c r="D29" t="s">
         <v>5</v>
@@ -1066,7 +1066,7 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1074,10 +1074,10 @@
         <v>37712</v>
       </c>
       <c r="B30" s="3">
-        <v>2.3E-2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C30" s="3">
-        <v>0.06</v>
+        <v>6</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
@@ -1086,7 +1086,7 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1094,10 +1094,10 @@
         <v>37742</v>
       </c>
       <c r="B31" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>2.5</v>
       </c>
       <c r="C31" s="3">
-        <v>6.0999999999999999E-2</v>
+        <v>6.1</v>
       </c>
       <c r="D31" t="s">
         <v>5</v>
@@ -1106,7 +1106,7 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1114,10 +1114,10 @@
         <v>37773</v>
       </c>
       <c r="B32" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>2.5</v>
       </c>
       <c r="C32" s="3">
-        <v>6.3E-2</v>
+        <v>6.3</v>
       </c>
       <c r="D32" t="s">
         <v>5</v>
@@ -1126,7 +1126,7 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1134,10 +1134,10 @@
         <v>37803</v>
       </c>
       <c r="B33" s="3">
-        <v>2.1999999999999999E-2</v>
+        <v>2.1999999999999997</v>
       </c>
       <c r="C33" s="3">
-        <v>6.2E-2</v>
+        <v>6.2</v>
       </c>
       <c r="D33" t="s">
         <v>5</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1154,10 +1154,10 @@
         <v>37834</v>
       </c>
       <c r="B34" s="3">
-        <v>2.4E-2</v>
+        <v>2.4</v>
       </c>
       <c r="C34" s="3">
-        <v>6.0999999999999999E-2</v>
+        <v>6.1</v>
       </c>
       <c r="D34" t="s">
         <v>5</v>
@@ -1166,7 +1166,7 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1174,10 +1174,10 @@
         <v>37865</v>
       </c>
       <c r="B35" s="3">
-        <v>2.3E-2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C35" s="3">
-        <v>6.0999999999999999E-2</v>
+        <v>6.1</v>
       </c>
       <c r="D35" t="s">
         <v>5</v>
@@ -1186,7 +1186,7 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1194,10 +1194,10 @@
         <v>37895</v>
       </c>
       <c r="B36" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>2.5</v>
       </c>
       <c r="C36" s="3">
-        <v>0.06</v>
+        <v>6</v>
       </c>
       <c r="D36" t="s">
         <v>5</v>
@@ -1206,7 +1206,7 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1214,10 +1214,10 @@
         <v>37926</v>
       </c>
       <c r="B37" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>2.5</v>
       </c>
       <c r="C37" s="3">
-        <v>5.8000000000000003E-2</v>
+        <v>5.8000000000000007</v>
       </c>
       <c r="D37" t="s">
         <v>5</v>
@@ -1226,7 +1226,7 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1234,10 +1234,10 @@
         <v>37956</v>
       </c>
       <c r="B38" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>2.5</v>
       </c>
       <c r="C38" s="3">
-        <v>5.7000000000000002E-2</v>
+        <v>5.7</v>
       </c>
       <c r="D38" t="s">
         <v>5</v>
@@ -1246,7 +1246,7 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1254,10 +1254,10 @@
         <v>37987</v>
       </c>
       <c r="B39" s="3">
-        <v>2.5999999999999999E-2</v>
+        <v>2.6</v>
       </c>
       <c r="C39" s="3">
-        <v>5.7000000000000002E-2</v>
+        <v>5.7</v>
       </c>
       <c r="D39" t="s">
         <v>5</v>
@@ -1266,7 +1266,7 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1274,10 +1274,10 @@
         <v>38018</v>
       </c>
       <c r="B40" s="3">
-        <v>2.5999999999999999E-2</v>
+        <v>2.6</v>
       </c>
       <c r="C40" s="3">
-        <v>5.6000000000000001E-2</v>
+        <v>5.6000000000000005</v>
       </c>
       <c r="D40" t="s">
         <v>5</v>
@@ -1286,7 +1286,7 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1294,10 +1294,10 @@
         <v>38047</v>
       </c>
       <c r="B41" s="3">
-        <v>2.5999999999999999E-2</v>
+        <v>2.6</v>
       </c>
       <c r="C41" s="3">
-        <v>5.8000000000000003E-2</v>
+        <v>5.8000000000000007</v>
       </c>
       <c r="D41" t="s">
         <v>5</v>
@@ -1306,7 +1306,7 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1314,10 +1314,10 @@
         <v>38078</v>
       </c>
       <c r="B42" s="3">
-        <v>2.5999999999999999E-2</v>
+        <v>2.6</v>
       </c>
       <c r="C42" s="3">
-        <v>5.6000000000000001E-2</v>
+        <v>5.6000000000000005</v>
       </c>
       <c r="D42" t="s">
         <v>5</v>
@@ -1326,7 +1326,7 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1334,10 +1334,10 @@
         <v>38108</v>
       </c>
       <c r="B43" s="3">
-        <v>2.7E-2</v>
+        <v>2.7</v>
       </c>
       <c r="C43" s="3">
-        <v>5.6000000000000001E-2</v>
+        <v>5.6000000000000005</v>
       </c>
       <c r="D43" t="s">
         <v>5</v>
@@ -1346,7 +1346,7 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1354,10 +1354,10 @@
         <v>38139</v>
       </c>
       <c r="B44" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>2.5</v>
       </c>
       <c r="C44" s="3">
-        <v>5.6000000000000001E-2</v>
+        <v>5.6000000000000005</v>
       </c>
       <c r="D44" t="s">
         <v>5</v>
@@ -1366,7 +1366,7 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1374,10 +1374,10 @@
         <v>38169</v>
       </c>
       <c r="B45" s="3">
-        <v>2.8000000000000001E-2</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="C45" s="3">
-        <v>5.5E-2</v>
+        <v>5.5</v>
       </c>
       <c r="D45" t="s">
         <v>5</v>
@@ -1386,7 +1386,7 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1394,10 +1394,10 @@
         <v>38200</v>
       </c>
       <c r="B46" s="3">
-        <v>2.5999999999999999E-2</v>
+        <v>2.6</v>
       </c>
       <c r="C46" s="3">
-        <v>5.3999999999999999E-2</v>
+        <v>5.4</v>
       </c>
       <c r="D46" t="s">
         <v>5</v>
@@ -1406,7 +1406,7 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1414,10 +1414,10 @@
         <v>38231</v>
       </c>
       <c r="B47" s="3">
-        <v>2.8000000000000001E-2</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="C47" s="3">
-        <v>5.3999999999999999E-2</v>
+        <v>5.4</v>
       </c>
       <c r="D47" t="s">
         <v>5</v>
@@ -1426,7 +1426,7 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1434,10 +1434,10 @@
         <v>38261</v>
       </c>
       <c r="B48" s="3">
-        <v>2.9000000000000001E-2</v>
+        <v>2.9000000000000004</v>
       </c>
       <c r="C48" s="3">
-        <v>5.5E-2</v>
+        <v>5.5</v>
       </c>
       <c r="D48" t="s">
         <v>5</v>
@@ -1446,7 +1446,7 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1454,10 +1454,10 @@
         <v>38292</v>
       </c>
       <c r="B49" s="3">
-        <v>2.5999999999999999E-2</v>
+        <v>2.6</v>
       </c>
       <c r="C49" s="3">
-        <v>5.3999999999999999E-2</v>
+        <v>5.4</v>
       </c>
       <c r="D49" t="s">
         <v>5</v>
@@ -1466,7 +1466,7 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1474,10 +1474,10 @@
         <v>38322</v>
       </c>
       <c r="B50" s="3">
-        <v>0.03</v>
+        <v>3</v>
       </c>
       <c r="C50" s="3">
-        <v>5.3999999999999999E-2</v>
+        <v>5.4</v>
       </c>
       <c r="D50" t="s">
         <v>5</v>
@@ -1486,7 +1486,7 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1494,10 +1494,10 @@
         <v>38353</v>
       </c>
       <c r="B51" s="3">
-        <v>2.8000000000000001E-2</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="C51" s="3">
-        <v>5.2999999999999999E-2</v>
+        <v>5.3</v>
       </c>
       <c r="D51" t="s">
         <v>5</v>
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1514,10 +1514,10 @@
         <v>38384</v>
       </c>
       <c r="B52" s="3">
-        <v>2.9000000000000001E-2</v>
+        <v>2.9000000000000004</v>
       </c>
       <c r="C52" s="3">
-        <v>5.3999999999999999E-2</v>
+        <v>5.4</v>
       </c>
       <c r="D52" t="s">
         <v>5</v>
@@ -1526,7 +1526,7 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1534,10 +1534,10 @@
         <v>38412</v>
       </c>
       <c r="B53" s="3">
-        <v>2.9000000000000001E-2</v>
+        <v>2.9000000000000004</v>
       </c>
       <c r="C53" s="3">
-        <v>5.1999999999999998E-2</v>
+        <v>5.2</v>
       </c>
       <c r="D53" t="s">
         <v>5</v>
@@ -1546,7 +1546,7 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1554,10 +1554,10 @@
         <v>38443</v>
       </c>
       <c r="B54" s="3">
-        <v>0.03</v>
+        <v>3</v>
       </c>
       <c r="C54" s="3">
-        <v>5.1999999999999998E-2</v>
+        <v>5.2</v>
       </c>
       <c r="D54" t="s">
         <v>5</v>
@@ -1566,7 +1566,7 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1574,10 +1574,10 @@
         <v>38473</v>
       </c>
       <c r="B55" s="3">
-        <v>2.8000000000000001E-2</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="C55" s="3">
-        <v>5.0999999999999997E-2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D55" t="s">
         <v>5</v>
@@ -1586,7 +1586,7 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1594,10 +1594,10 @@
         <v>38504</v>
       </c>
       <c r="B56" s="3">
-        <v>2.9000000000000001E-2</v>
+        <v>2.9000000000000004</v>
       </c>
       <c r="C56" s="3">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="D56" t="s">
         <v>5</v>
@@ -1606,7 +1606,7 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1614,10 +1614,10 @@
         <v>38534</v>
       </c>
       <c r="B57" s="3">
-        <v>3.1E-2</v>
+        <v>3.1</v>
       </c>
       <c r="C57" s="3">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="D57" t="s">
         <v>5</v>
@@ -1626,7 +1626,7 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1634,10 +1634,10 @@
         <v>38565</v>
       </c>
       <c r="B58" s="3">
-        <v>0.03</v>
+        <v>3</v>
       </c>
       <c r="C58" s="3">
-        <v>4.9000000000000002E-2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D58" t="s">
         <v>5</v>
@@ -1646,7 +1646,7 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1654,10 +1654,10 @@
         <v>38596</v>
       </c>
       <c r="B59" s="3">
-        <v>3.1E-2</v>
+        <v>3.1</v>
       </c>
       <c r="C59" s="3">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="D59" t="s">
         <v>5</v>
@@ -1666,7 +1666,7 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1674,10 +1674,10 @@
         <v>38626</v>
       </c>
       <c r="B60" s="3">
-        <v>0.03</v>
+        <v>3</v>
       </c>
       <c r="C60" s="3">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="D60" t="s">
         <v>5</v>
@@ -1686,7 +1686,7 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1694,10 +1694,10 @@
         <v>38657</v>
       </c>
       <c r="B61" s="3">
-        <v>3.1E-2</v>
+        <v>3.1</v>
       </c>
       <c r="C61" s="3">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="D61" t="s">
         <v>5</v>
@@ -1706,7 +1706,7 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1714,10 +1714,10 @@
         <v>38687</v>
       </c>
       <c r="B62" s="3">
-        <v>3.1E-2</v>
+        <v>3.1</v>
       </c>
       <c r="C62" s="3">
-        <v>4.9000000000000002E-2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D62" t="s">
         <v>5</v>
@@ -1726,7 +1726,7 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1734,10 +1734,10 @@
         <v>38718</v>
       </c>
       <c r="B63" s="3">
-        <v>3.1E-2</v>
+        <v>3.1</v>
       </c>
       <c r="C63" s="3">
-        <v>4.7E-2</v>
+        <v>4.7</v>
       </c>
       <c r="D63" t="s">
         <v>5</v>
@@ -1746,7 +1746,7 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1754,10 +1754,10 @@
         <v>38749</v>
       </c>
       <c r="B64" s="3">
-        <v>3.1E-2</v>
+        <v>3.1</v>
       </c>
       <c r="C64" s="3">
-        <v>4.8000000000000001E-2</v>
+        <v>4.8</v>
       </c>
       <c r="D64" t="s">
         <v>5</v>
@@ -1766,7 +1766,7 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1774,10 +1774,10 @@
         <v>38777</v>
       </c>
       <c r="B65" s="3">
-        <v>3.4000000000000002E-2</v>
+        <v>3.4000000000000004</v>
       </c>
       <c r="C65" s="3">
-        <v>4.7E-2</v>
+        <v>4.7</v>
       </c>
       <c r="D65" t="s">
         <v>5</v>
@@ -1786,7 +1786,7 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1794,10 +1794,10 @@
         <v>38808</v>
       </c>
       <c r="B66" s="3">
-        <v>3.4000000000000002E-2</v>
+        <v>3.4000000000000004</v>
       </c>
       <c r="C66" s="3">
-        <v>4.7E-2</v>
+        <v>4.7</v>
       </c>
       <c r="D66" t="s">
         <v>5</v>
@@ -1806,7 +1806,7 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1814,10 +1814,10 @@
         <v>38838</v>
       </c>
       <c r="B67" s="3">
-        <v>3.2000000000000001E-2</v>
+        <v>3.2</v>
       </c>
       <c r="C67" s="3">
-        <v>4.5999999999999999E-2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D67" t="s">
         <v>5</v>
@@ -1826,7 +1826,7 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1834,10 +1834,10 @@
         <v>38869</v>
       </c>
       <c r="B68" s="3">
-        <v>3.3000000000000002E-2</v>
+        <v>3.3000000000000003</v>
       </c>
       <c r="C68" s="3">
-        <v>4.5999999999999999E-2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D68" t="s">
         <v>5</v>
@@ -1846,7 +1846,7 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1854,10 +1854,10 @@
         <v>38899</v>
       </c>
       <c r="B69" s="3">
-        <v>3.1E-2</v>
+        <v>3.1</v>
       </c>
       <c r="C69" s="3">
-        <v>4.7E-2</v>
+        <v>4.7</v>
       </c>
       <c r="D69" t="s">
         <v>5</v>
@@ -1866,7 +1866,7 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1874,10 +1874,10 @@
         <v>38930</v>
       </c>
       <c r="B70" s="3">
-        <v>3.3000000000000002E-2</v>
+        <v>3.3000000000000003</v>
       </c>
       <c r="C70" s="3">
-        <v>4.7E-2</v>
+        <v>4.7</v>
       </c>
       <c r="D70" t="s">
         <v>5</v>
@@ -1886,7 +1886,7 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1894,10 +1894,10 @@
         <v>38961</v>
       </c>
       <c r="B71" s="3">
-        <v>3.3000000000000002E-2</v>
+        <v>3.3000000000000003</v>
       </c>
       <c r="C71" s="3">
-        <v>4.4999999999999998E-2</v>
+        <v>4.5</v>
       </c>
       <c r="D71" t="s">
         <v>5</v>
@@ -1906,7 +1906,7 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1914,10 +1914,10 @@
         <v>38991</v>
       </c>
       <c r="B72" s="3">
-        <v>3.2000000000000001E-2</v>
+        <v>3.2</v>
       </c>
       <c r="C72" s="3">
-        <v>4.3999999999999997E-2</v>
+        <v>4.3999999999999995</v>
       </c>
       <c r="D72" t="s">
         <v>5</v>
@@ -1926,7 +1926,7 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1934,10 +1934,10 @@
         <v>39022</v>
       </c>
       <c r="B73" s="3">
-        <v>3.3000000000000002E-2</v>
+        <v>3.3000000000000003</v>
       </c>
       <c r="C73" s="3">
-        <v>4.4999999999999998E-2</v>
+        <v>4.5</v>
       </c>
       <c r="D73" t="s">
         <v>5</v>
@@ -1946,7 +1946,7 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1954,10 +1954,10 @@
         <v>39052</v>
       </c>
       <c r="B74" s="3">
-        <v>3.3000000000000002E-2</v>
+        <v>3.3000000000000003</v>
       </c>
       <c r="C74" s="3">
-        <v>4.3999999999999997E-2</v>
+        <v>4.3999999999999995</v>
       </c>
       <c r="D74" t="s">
         <v>5</v>
@@ -1966,7 +1966,7 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1974,10 +1974,10 @@
         <v>39083</v>
       </c>
       <c r="B75" s="3">
-        <v>3.3000000000000002E-2</v>
+        <v>3.3000000000000003</v>
       </c>
       <c r="C75" s="3">
-        <v>4.5999999999999999E-2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D75" t="s">
         <v>5</v>
@@ -1986,7 +1986,7 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1994,10 +1994,10 @@
         <v>39114</v>
       </c>
       <c r="B76" s="3">
-        <v>3.3000000000000002E-2</v>
+        <v>3.3000000000000003</v>
       </c>
       <c r="C76" s="3">
-        <v>4.4999999999999998E-2</v>
+        <v>4.5</v>
       </c>
       <c r="D76" t="s">
         <v>5</v>
@@ -2006,7 +2006,7 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -2014,10 +2014,10 @@
         <v>39142</v>
       </c>
       <c r="B77" s="3">
-        <v>3.5000000000000003E-2</v>
+        <v>3.5000000000000004</v>
       </c>
       <c r="C77" s="3">
-        <v>4.3999999999999997E-2</v>
+        <v>4.3999999999999995</v>
       </c>
       <c r="D77" t="s">
         <v>5</v>
@@ -2026,7 +2026,7 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -2034,10 +2034,10 @@
         <v>39173</v>
       </c>
       <c r="B78" s="3">
-        <v>3.3000000000000002E-2</v>
+        <v>3.3000000000000003</v>
       </c>
       <c r="C78" s="3">
-        <v>4.4999999999999998E-2</v>
+        <v>4.5</v>
       </c>
       <c r="D78" t="s">
         <v>5</v>
@@ -2046,7 +2046,7 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -2054,10 +2054,10 @@
         <v>39203</v>
       </c>
       <c r="B79" s="3">
-        <v>3.3000000000000002E-2</v>
+        <v>3.3000000000000003</v>
       </c>
       <c r="C79" s="3">
-        <v>4.3999999999999997E-2</v>
+        <v>4.3999999999999995</v>
       </c>
       <c r="D79" t="s">
         <v>5</v>
@@ -2066,7 +2066,7 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -2074,10 +2074,10 @@
         <v>39234</v>
       </c>
       <c r="B80" s="3">
-        <v>3.4000000000000002E-2</v>
+        <v>3.4000000000000004</v>
       </c>
       <c r="C80" s="3">
-        <v>4.5999999999999999E-2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D80" t="s">
         <v>5</v>
@@ -2086,7 +2086,7 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -2094,10 +2094,10 @@
         <v>39264</v>
       </c>
       <c r="B81" s="3">
-        <v>3.2000000000000001E-2</v>
+        <v>3.2</v>
       </c>
       <c r="C81" s="3">
-        <v>4.7E-2</v>
+        <v>4.7</v>
       </c>
       <c r="D81" t="s">
         <v>5</v>
@@ -2106,7 +2106,7 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -2114,10 +2114,10 @@
         <v>39295</v>
       </c>
       <c r="B82" s="3">
-        <v>3.2000000000000001E-2</v>
+        <v>3.2</v>
       </c>
       <c r="C82" s="3">
-        <v>4.5999999999999999E-2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D82" t="s">
         <v>5</v>
@@ -2126,7 +2126,7 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -2134,10 +2134,10 @@
         <v>39326</v>
       </c>
       <c r="B83" s="3">
-        <v>3.3000000000000002E-2</v>
+        <v>3.3000000000000003</v>
       </c>
       <c r="C83" s="3">
-        <v>4.7E-2</v>
+        <v>4.7</v>
       </c>
       <c r="D83" t="s">
         <v>5</v>
@@ -2146,7 +2146,7 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -2154,10 +2154,10 @@
         <v>39356</v>
       </c>
       <c r="B84" s="3">
-        <v>3.2000000000000001E-2</v>
+        <v>3.2</v>
       </c>
       <c r="C84" s="3">
-        <v>4.7E-2</v>
+        <v>4.7</v>
       </c>
       <c r="D84" t="s">
         <v>5</v>
@@ -2166,7 +2166,7 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -2174,10 +2174,10 @@
         <v>39387</v>
       </c>
       <c r="B85" s="3">
-        <v>3.3000000000000002E-2</v>
+        <v>3.3000000000000003</v>
       </c>
       <c r="C85" s="3">
-        <v>4.7E-2</v>
+        <v>4.7</v>
       </c>
       <c r="D85" t="s">
         <v>5</v>
@@ -2186,7 +2186,7 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -2194,10 +2194,10 @@
         <v>39417</v>
       </c>
       <c r="B86" s="3">
-        <v>3.2000000000000001E-2</v>
+        <v>3.2</v>
       </c>
       <c r="C86" s="3">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="D86" t="s">
         <v>6</v>
@@ -2206,7 +2206,7 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -2214,10 +2214,10 @@
         <v>39448</v>
       </c>
       <c r="B87" s="3">
-        <v>3.2000000000000001E-2</v>
+        <v>3.2</v>
       </c>
       <c r="C87" s="3">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="D87" t="s">
         <v>6</v>
@@ -2226,7 +2226,7 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -2234,10 +2234,10 @@
         <v>39479</v>
       </c>
       <c r="B88" s="3">
-        <v>0.03</v>
+        <v>3</v>
       </c>
       <c r="C88" s="3">
-        <v>4.9000000000000002E-2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D88" t="s">
         <v>6</v>
@@ -2246,7 +2246,7 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -2254,10 +2254,10 @@
         <v>39508</v>
       </c>
       <c r="B89" s="3">
-        <v>0.03</v>
+        <v>3</v>
       </c>
       <c r="C89" s="3">
-        <v>5.0999999999999997E-2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D89" t="s">
         <v>6</v>
@@ -2266,7 +2266,7 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -2274,10 +2274,10 @@
         <v>39539</v>
       </c>
       <c r="B90" s="3">
-        <v>2.8000000000000001E-2</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="C90" s="3">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="D90" t="s">
         <v>6</v>
@@ -2286,7 +2286,7 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -2294,10 +2294,10 @@
         <v>39569</v>
       </c>
       <c r="B91" s="3">
-        <v>0.03</v>
+        <v>3</v>
       </c>
       <c r="C91" s="3">
-        <v>5.3999999999999999E-2</v>
+        <v>5.4</v>
       </c>
       <c r="D91" t="s">
         <v>6</v>
@@ -2306,7 +2306,7 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -2314,10 +2314,10 @@
         <v>39600</v>
       </c>
       <c r="B92" s="3">
-        <v>2.7E-2</v>
+        <v>2.7</v>
       </c>
       <c r="C92" s="3">
-        <v>5.6000000000000001E-2</v>
+        <v>5.6000000000000005</v>
       </c>
       <c r="D92" t="s">
         <v>6</v>
@@ -2326,7 +2326,7 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -2334,10 +2334,10 @@
         <v>39630</v>
       </c>
       <c r="B93" s="3">
-        <v>2.7E-2</v>
+        <v>2.7</v>
       </c>
       <c r="C93" s="3">
-        <v>5.8000000000000003E-2</v>
+        <v>5.8000000000000007</v>
       </c>
       <c r="D93" t="s">
         <v>6</v>
@@ -2346,7 +2346,7 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -2354,10 +2354,10 @@
         <v>39661</v>
       </c>
       <c r="B94" s="3">
-        <v>2.5999999999999999E-2</v>
+        <v>2.6</v>
       </c>
       <c r="C94" s="3">
-        <v>6.0999999999999999E-2</v>
+        <v>6.1</v>
       </c>
       <c r="D94" t="s">
         <v>6</v>
@@ -2366,7 +2366,7 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -2374,10 +2374,10 @@
         <v>39692</v>
       </c>
       <c r="B95" s="3">
-        <v>2.3E-2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C95" s="3">
-        <v>6.0999999999999999E-2</v>
+        <v>6.1</v>
       </c>
       <c r="D95" t="s">
         <v>6</v>
@@ -2386,7 +2386,7 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -2394,10 +2394,10 @@
         <v>39722</v>
       </c>
       <c r="B96" s="3">
-        <v>2.4E-2</v>
+        <v>2.4</v>
       </c>
       <c r="C96" s="3">
-        <v>6.5000000000000002E-2</v>
+        <v>6.5</v>
       </c>
       <c r="D96" t="s">
         <v>6</v>
@@ -2406,7 +2406,7 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -2414,10 +2414,10 @@
         <v>39753</v>
       </c>
       <c r="B97" s="3">
-        <v>2.3E-2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C97" s="3">
-        <v>6.8000000000000005E-2</v>
+        <v>6.8000000000000007</v>
       </c>
       <c r="D97" t="s">
         <v>6</v>
@@ -2426,7 +2426,7 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -2434,10 +2434,10 @@
         <v>39783</v>
       </c>
       <c r="B98" s="3">
-        <v>2.3E-2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C98" s="3">
-        <v>7.2999999999999995E-2</v>
+        <v>7.3</v>
       </c>
       <c r="D98" t="s">
         <v>6</v>
@@ -2446,7 +2446,7 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -2454,10 +2454,10 @@
         <v>39814</v>
       </c>
       <c r="B99" s="3">
-        <v>0.02</v>
+        <v>2</v>
       </c>
       <c r="C99" s="3">
-        <v>7.8E-2</v>
+        <v>7.8</v>
       </c>
       <c r="D99" t="s">
         <v>6</v>
@@ -2466,7 +2466,7 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -2474,10 +2474,10 @@
         <v>39845</v>
       </c>
       <c r="B100" s="3">
-        <v>2.1000000000000001E-2</v>
+        <v>2.1</v>
       </c>
       <c r="C100" s="3">
-        <v>8.3000000000000004E-2</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D100" t="s">
         <v>6</v>
@@ -2486,7 +2486,7 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -2494,10 +2494,10 @@
         <v>39873</v>
       </c>
       <c r="B101" s="3">
-        <v>1.9E-2</v>
+        <v>1.9</v>
       </c>
       <c r="C101" s="3">
-        <v>8.6999999999999994E-2</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="D101" t="s">
         <v>6</v>
@@ -2506,7 +2506,7 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -2514,10 +2514,10 @@
         <v>39904</v>
       </c>
       <c r="B102" s="3">
-        <v>1.7000000000000001E-2</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="C102" s="3">
-        <v>0.09</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
         <v>6</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -2534,10 +2534,10 @@
         <v>39934</v>
       </c>
       <c r="B103" s="3">
-        <v>1.9E-2</v>
+        <v>1.9</v>
       </c>
       <c r="C103" s="3">
-        <v>9.4E-2</v>
+        <v>9.4</v>
       </c>
       <c r="D103" t="s">
         <v>6</v>
@@ -2546,7 +2546,7 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -2554,10 +2554,10 @@
         <v>39965</v>
       </c>
       <c r="B104" s="3">
-        <v>1.9E-2</v>
+        <v>1.9</v>
       </c>
       <c r="C104" s="3">
-        <v>9.5000000000000001E-2</v>
+        <v>9.5</v>
       </c>
       <c r="D104" t="s">
         <v>6</v>
@@ -2566,7 +2566,7 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -2574,10 +2574,10 @@
         <v>39995</v>
       </c>
       <c r="B105" s="3">
-        <v>1.7000000000000001E-2</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="C105" s="3">
-        <v>9.5000000000000001E-2</v>
+        <v>9.5</v>
       </c>
       <c r="D105" t="s">
         <v>7</v>
@@ -2586,7 +2586,7 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -2594,10 +2594,10 @@
         <v>40026</v>
       </c>
       <c r="B106" s="3">
-        <v>1.7999999999999999E-2</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="C106" s="3">
-        <v>9.6000000000000002E-2</v>
+        <v>9.6</v>
       </c>
       <c r="D106" t="s">
         <v>7</v>
@@ -2606,7 +2606,7 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -2614,10 +2614,10 @@
         <v>40057</v>
       </c>
       <c r="B107" s="3">
-        <v>1.9E-2</v>
+        <v>1.9</v>
       </c>
       <c r="C107" s="3">
-        <v>9.8000000000000004E-2</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="D107" t="s">
         <v>7</v>
@@ -2626,7 +2626,7 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -2634,10 +2634,10 @@
         <v>40087</v>
       </c>
       <c r="B108" s="3">
-        <v>1.7999999999999999E-2</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="C108" s="3">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
         <v>7</v>
@@ -2646,7 +2646,7 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -2654,10 +2654,10 @@
         <v>40118</v>
       </c>
       <c r="B109" s="3">
-        <v>1.9E-2</v>
+        <v>1.9</v>
       </c>
       <c r="C109" s="3">
-        <v>9.9000000000000005E-2</v>
+        <v>9.9</v>
       </c>
       <c r="D109" t="s">
         <v>7</v>
@@ -2666,7 +2666,7 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -2674,10 +2674,10 @@
         <v>40148</v>
       </c>
       <c r="B110" s="3">
-        <v>1.9E-2</v>
+        <v>1.9</v>
       </c>
       <c r="C110" s="3">
-        <v>9.9000000000000005E-2</v>
+        <v>9.9</v>
       </c>
       <c r="D110" t="s">
         <v>7</v>
@@ -2686,7 +2686,7 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -2694,10 +2694,10 @@
         <v>40179</v>
       </c>
       <c r="B111" s="3">
-        <v>2.1000000000000001E-2</v>
+        <v>2.1</v>
       </c>
       <c r="C111" s="3">
-        <v>9.8000000000000004E-2</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="D111" t="s">
         <v>7</v>
@@ -2706,7 +2706,7 @@
         <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -2714,10 +2714,10 @@
         <v>40210</v>
       </c>
       <c r="B112" s="3">
-        <v>0.02</v>
+        <v>2</v>
       </c>
       <c r="C112" s="3">
-        <v>9.8000000000000004E-2</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="D112" t="s">
         <v>7</v>
@@ -2726,7 +2726,7 @@
         <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -2734,10 +2734,10 @@
         <v>40238</v>
       </c>
       <c r="B113" s="3">
-        <v>0.02</v>
+        <v>2</v>
       </c>
       <c r="C113" s="3">
-        <v>9.9000000000000005E-2</v>
+        <v>9.9</v>
       </c>
       <c r="D113" t="s">
         <v>7</v>
@@ -2746,7 +2746,7 @@
         <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -2754,10 +2754,10 @@
         <v>40269</v>
       </c>
       <c r="B114" s="3">
-        <v>2.4E-2</v>
+        <v>2.4</v>
       </c>
       <c r="C114" s="3">
-        <v>9.9000000000000005E-2</v>
+        <v>9.9</v>
       </c>
       <c r="D114" t="s">
         <v>7</v>
@@ -2766,7 +2766,7 @@
         <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -2774,10 +2774,10 @@
         <v>40299</v>
       </c>
       <c r="B115" s="3">
-        <v>2.1999999999999999E-2</v>
+        <v>2.1999999999999997</v>
       </c>
       <c r="C115" s="3">
-        <v>9.6000000000000002E-2</v>
+        <v>9.6</v>
       </c>
       <c r="D115" t="s">
         <v>7</v>
@@ -2786,7 +2786,7 @@
         <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -2794,10 +2794,10 @@
         <v>40330</v>
       </c>
       <c r="B116" s="3">
-        <v>2.1000000000000001E-2</v>
+        <v>2.1</v>
       </c>
       <c r="C116" s="3">
-        <v>9.4E-2</v>
+        <v>9.4</v>
       </c>
       <c r="D116" t="s">
         <v>7</v>
@@ -2806,7 +2806,7 @@
         <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -2814,10 +2814,10 @@
         <v>40360</v>
       </c>
       <c r="B117" s="3">
-        <v>2.3E-2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C117" s="3">
-        <v>9.4E-2</v>
+        <v>9.4</v>
       </c>
       <c r="D117" t="s">
         <v>7</v>
@@ -2826,7 +2826,7 @@
         <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -2834,10 +2834,10 @@
         <v>40391</v>
       </c>
       <c r="B118" s="3">
-        <v>2.1999999999999999E-2</v>
+        <v>2.1999999999999997</v>
       </c>
       <c r="C118" s="3">
-        <v>9.5000000000000001E-2</v>
+        <v>9.5</v>
       </c>
       <c r="D118" t="s">
         <v>7</v>
@@ -2846,7 +2846,7 @@
         <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -2854,10 +2854,10 @@
         <v>40422</v>
       </c>
       <c r="B119" s="3">
-        <v>2.1999999999999999E-2</v>
+        <v>2.1999999999999997</v>
       </c>
       <c r="C119" s="3">
-        <v>9.5000000000000001E-2</v>
+        <v>9.5</v>
       </c>
       <c r="D119" t="s">
         <v>7</v>
@@ -2866,7 +2866,7 @@
         <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -2874,10 +2874,10 @@
         <v>40452</v>
       </c>
       <c r="B120" s="3">
-        <v>2.4E-2</v>
+        <v>2.4</v>
       </c>
       <c r="C120" s="3">
-        <v>9.4E-2</v>
+        <v>9.4</v>
       </c>
       <c r="D120" t="s">
         <v>7</v>
@@ -2886,7 +2886,7 @@
         <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -2894,10 +2894,10 @@
         <v>40483</v>
       </c>
       <c r="B121" s="3">
-        <v>2.4E-2</v>
+        <v>2.4</v>
       </c>
       <c r="C121" s="3">
-        <v>9.8000000000000004E-2</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="D121" t="s">
         <v>7</v>
@@ -2906,7 +2906,7 @@
         <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -2914,10 +2914,10 @@
         <v>40513</v>
       </c>
       <c r="B122" s="3">
-        <v>2.3E-2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C122" s="3">
-        <v>9.2999999999999999E-2</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="D122" t="s">
         <v>7</v>
@@ -2926,7 +2926,7 @@
         <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -2934,10 +2934,10 @@
         <v>40544</v>
       </c>
       <c r="B123" s="3">
-        <v>2.3E-2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C123" s="3">
-        <v>9.0999999999999998E-2</v>
+        <v>9.1</v>
       </c>
       <c r="D123" t="s">
         <v>7</v>
@@ -2946,7 +2946,7 @@
         <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -2954,10 +2954,10 @@
         <v>40575</v>
       </c>
       <c r="B124" s="3">
-        <v>2.4E-2</v>
+        <v>2.4</v>
       </c>
       <c r="C124" s="3">
-        <v>0.09</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
         <v>7</v>
@@ -2966,7 +2966,7 @@
         <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -2974,10 +2974,10 @@
         <v>40603</v>
       </c>
       <c r="B125" s="3">
-        <v>2.4E-2</v>
+        <v>2.4</v>
       </c>
       <c r="C125" s="3">
-        <v>0.09</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
         <v>7</v>
@@ -2986,7 +2986,7 @@
         <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -2994,10 +2994,10 @@
         <v>40634</v>
       </c>
       <c r="B126" s="3">
-        <v>2.4E-2</v>
+        <v>2.4</v>
       </c>
       <c r="C126" s="3">
-        <v>9.0999999999999998E-2</v>
+        <v>9.1</v>
       </c>
       <c r="D126" t="s">
         <v>7</v>
@@ -3006,7 +3006,7 @@
         <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -3014,10 +3014,10 @@
         <v>40664</v>
       </c>
       <c r="B127" s="3">
-        <v>2.4E-2</v>
+        <v>2.4</v>
       </c>
       <c r="C127" s="3">
-        <v>0.09</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
         <v>7</v>
@@ -3026,7 +3026,7 @@
         <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -3034,10 +3034,10 @@
         <v>40695</v>
       </c>
       <c r="B128" s="3">
-        <v>2.5999999999999999E-2</v>
+        <v>2.6</v>
       </c>
       <c r="C128" s="3">
-        <v>9.0999999999999998E-2</v>
+        <v>9.1</v>
       </c>
       <c r="D128" t="s">
         <v>7</v>
@@ -3046,7 +3046,7 @@
         <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -3054,10 +3054,10 @@
         <v>40725</v>
       </c>
       <c r="B129" s="3">
-        <v>2.7E-2</v>
+        <v>2.7</v>
       </c>
       <c r="C129" s="3">
-        <v>0.09</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
         <v>7</v>
@@ -3066,7 +3066,7 @@
         <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -3074,10 +3074,10 @@
         <v>40756</v>
       </c>
       <c r="B130" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>2.5</v>
       </c>
       <c r="C130" s="3">
-        <v>0.09</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
         <v>7</v>
@@ -3086,7 +3086,7 @@
         <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -3094,10 +3094,10 @@
         <v>40787</v>
       </c>
       <c r="B131" s="3">
-        <v>2.8000000000000001E-2</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="C131" s="3">
-        <v>0.09</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
         <v>7</v>
@@ -3106,7 +3106,7 @@
         <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -3114,10 +3114,10 @@
         <v>40817</v>
       </c>
       <c r="B132" s="3">
-        <v>2.7E-2</v>
+        <v>2.7</v>
       </c>
       <c r="C132" s="3">
-        <v>8.7999999999999995E-2</v>
+        <v>8.7999999999999989</v>
       </c>
       <c r="D132" t="s">
         <v>7</v>
@@ -3126,7 +3126,7 @@
         <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -3134,10 +3134,10 @@
         <v>40848</v>
       </c>
       <c r="B133" s="3">
-        <v>2.5999999999999999E-2</v>
+        <v>2.6</v>
       </c>
       <c r="C133" s="3">
-        <v>8.5999999999999993E-2</v>
+        <v>8.6</v>
       </c>
       <c r="D133" t="s">
         <v>7</v>
@@ -3146,7 +3146,7 @@
         <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -3154,10 +3154,10 @@
         <v>40878</v>
       </c>
       <c r="B134" s="3">
-        <v>2.8000000000000001E-2</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="C134" s="3">
-        <v>8.5000000000000006E-2</v>
+        <v>8.5</v>
       </c>
       <c r="D134" t="s">
         <v>7</v>
@@ -3166,7 +3166,7 @@
         <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -3174,10 +3174,10 @@
         <v>40909</v>
       </c>
       <c r="B135" s="3">
-        <v>2.8000000000000001E-2</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="C135" s="3">
-        <v>8.3000000000000004E-2</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D135" t="s">
         <v>7</v>
@@ -3186,7 +3186,7 @@
         <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -3194,10 +3194,10 @@
         <v>40940</v>
       </c>
       <c r="B136" s="3">
-        <v>2.5999999999999999E-2</v>
+        <v>2.6</v>
       </c>
       <c r="C136" s="3">
-        <v>8.3000000000000004E-2</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D136" t="s">
         <v>7</v>
@@ -3206,7 +3206,7 @@
         <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -3214,10 +3214,10 @@
         <v>40969</v>
       </c>
       <c r="B137" s="3">
-        <v>2.9000000000000001E-2</v>
+        <v>2.9000000000000004</v>
       </c>
       <c r="C137" s="3">
-        <v>8.2000000000000003E-2</v>
+        <v>8.2000000000000011</v>
       </c>
       <c r="D137" t="s">
         <v>7</v>
@@ -3226,7 +3226,7 @@
         <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -3234,10 +3234,10 @@
         <v>41000</v>
       </c>
       <c r="B138" s="3">
-        <v>2.8000000000000001E-2</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="C138" s="3">
-        <v>8.2000000000000003E-2</v>
+        <v>8.2000000000000011</v>
       </c>
       <c r="D138" t="s">
         <v>7</v>
@@ -3246,7 +3246,7 @@
         <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -3254,10 +3254,10 @@
         <v>41030</v>
       </c>
       <c r="B139" s="3">
-        <v>2.8000000000000001E-2</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="C139" s="3">
-        <v>8.2000000000000003E-2</v>
+        <v>8.2000000000000011</v>
       </c>
       <c r="D139" t="s">
         <v>7</v>
@@ -3266,7 +3266,7 @@
         <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -3274,10 +3274,10 @@
         <v>41061</v>
       </c>
       <c r="B140" s="3">
-        <v>2.8000000000000001E-2</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="C140" s="3">
-        <v>8.2000000000000003E-2</v>
+        <v>8.2000000000000011</v>
       </c>
       <c r="D140" t="s">
         <v>7</v>
@@ -3286,7 +3286,7 @@
         <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -3294,10 +3294,10 @@
         <v>41091</v>
       </c>
       <c r="B141" s="3">
-        <v>2.7E-2</v>
+        <v>2.7</v>
       </c>
       <c r="C141" s="3">
-        <v>8.2000000000000003E-2</v>
+        <v>8.2000000000000011</v>
       </c>
       <c r="D141" t="s">
         <v>7</v>
@@ -3306,7 +3306,7 @@
         <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -3314,10 +3314,10 @@
         <v>41122</v>
       </c>
       <c r="B142" s="3">
-        <v>2.8000000000000001E-2</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="C142" s="3">
-        <v>8.1000000000000003E-2</v>
+        <v>8.1</v>
       </c>
       <c r="D142" t="s">
         <v>7</v>
@@ -3326,7 +3326,7 @@
         <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -3334,10 +3334,10 @@
         <v>41153</v>
       </c>
       <c r="B143" s="3">
-        <v>2.8000000000000001E-2</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="C143" s="3">
-        <v>7.8E-2</v>
+        <v>7.8</v>
       </c>
       <c r="D143" t="s">
         <v>7</v>
@@ -3346,7 +3346,7 @@
         <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -3354,10 +3354,10 @@
         <v>41183</v>
       </c>
       <c r="B144" s="3">
-        <v>2.7E-2</v>
+        <v>2.7</v>
       </c>
       <c r="C144" s="3">
-        <v>7.8E-2</v>
+        <v>7.8</v>
       </c>
       <c r="D144" t="s">
         <v>7</v>
@@ -3366,7 +3366,7 @@
         <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -3374,10 +3374,10 @@
         <v>41214</v>
       </c>
       <c r="B145" s="3">
-        <v>2.8000000000000001E-2</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="C145" s="3">
-        <v>7.6999999999999999E-2</v>
+        <v>7.7</v>
       </c>
       <c r="D145" t="s">
         <v>7</v>
@@ -3386,7 +3386,7 @@
         <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -3394,10 +3394,10 @@
         <v>41244</v>
       </c>
       <c r="B146" s="3">
-        <v>2.9000000000000001E-2</v>
+        <v>2.9000000000000004</v>
       </c>
       <c r="C146" s="3">
-        <v>7.9000000000000001E-2</v>
+        <v>7.9</v>
       </c>
       <c r="D146" t="s">
         <v>7</v>
@@ -3406,7 +3406,7 @@
         <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -3414,10 +3414,10 @@
         <v>41275</v>
       </c>
       <c r="B147" s="3">
-        <v>2.8000000000000001E-2</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="C147" s="3">
-        <v>0.08</v>
+        <v>8</v>
       </c>
       <c r="D147" t="s">
         <v>7</v>
@@ -3426,7 +3426,7 @@
         <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -3434,10 +3434,10 @@
         <v>41306</v>
       </c>
       <c r="B148" s="3">
-        <v>2.9000000000000001E-2</v>
+        <v>2.9000000000000004</v>
       </c>
       <c r="C148" s="3">
-        <v>7.6999999999999999E-2</v>
+        <v>7.7</v>
       </c>
       <c r="D148" t="s">
         <v>7</v>
@@ -3446,7 +3446,7 @@
         <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -3454,10 +3454,10 @@
         <v>41334</v>
       </c>
       <c r="B149" s="3">
-        <v>2.9000000000000001E-2</v>
+        <v>2.9000000000000004</v>
       </c>
       <c r="C149" s="3">
-        <v>7.4999999999999997E-2</v>
+        <v>7.5</v>
       </c>
       <c r="D149" t="s">
         <v>7</v>
@@ -3466,7 +3466,7 @@
         <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -3474,10 +3474,10 @@
         <v>41365</v>
       </c>
       <c r="B150" s="3">
-        <v>2.9000000000000001E-2</v>
+        <v>2.9000000000000004</v>
       </c>
       <c r="C150" s="3">
-        <v>7.5999999999999998E-2</v>
+        <v>7.6</v>
       </c>
       <c r="D150" t="s">
         <v>7</v>
@@ -3486,7 +3486,7 @@
         <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -3494,10 +3494,10 @@
         <v>41395</v>
       </c>
       <c r="B151" s="3">
-        <v>0.03</v>
+        <v>3</v>
       </c>
       <c r="C151" s="3">
-        <v>7.4999999999999997E-2</v>
+        <v>7.5</v>
       </c>
       <c r="D151" t="s">
         <v>7</v>
@@ -3506,7 +3506,7 @@
         <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -3514,10 +3514,10 @@
         <v>41426</v>
       </c>
       <c r="B152" s="3">
-        <v>0.03</v>
+        <v>3</v>
       </c>
       <c r="C152" s="3">
-        <v>7.4999999999999997E-2</v>
+        <v>7.5</v>
       </c>
       <c r="D152" t="s">
         <v>7</v>
@@ -3526,7 +3526,7 @@
         <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -3534,10 +3534,10 @@
         <v>41456</v>
       </c>
       <c r="B153" s="3">
-        <v>2.8000000000000001E-2</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="C153" s="3">
-        <v>7.2999999999999995E-2</v>
+        <v>7.3</v>
       </c>
       <c r="D153" t="s">
         <v>7</v>
@@ -3546,7 +3546,7 @@
         <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -3554,10 +3554,10 @@
         <v>41487</v>
       </c>
       <c r="B154" s="3">
-        <v>2.9000000000000001E-2</v>
+        <v>2.9000000000000004</v>
       </c>
       <c r="C154" s="3">
-        <v>7.1999999999999995E-2</v>
+        <v>7.1999999999999993</v>
       </c>
       <c r="D154" t="s">
         <v>7</v>
@@ -3566,7 +3566,7 @@
         <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -3574,10 +3574,10 @@
         <v>41518</v>
       </c>
       <c r="B155" s="3">
-        <v>2.9000000000000001E-2</v>
+        <v>2.9000000000000004</v>
       </c>
       <c r="C155" s="3">
-        <v>7.1999999999999995E-2</v>
+        <v>7.1999999999999993</v>
       </c>
       <c r="D155" t="s">
         <v>7</v>
@@ -3586,7 +3586,7 @@
         <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -3594,10 +3594,10 @@
         <v>41548</v>
       </c>
       <c r="B156" s="3">
-        <v>0.03</v>
+        <v>3</v>
       </c>
       <c r="C156" s="3">
-        <v>7.1999999999999995E-2</v>
+        <v>7.1999999999999993</v>
       </c>
       <c r="D156" t="s">
         <v>7</v>
@@ -3606,7 +3606,7 @@
         <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -3614,10 +3614,10 @@
         <v>41579</v>
       </c>
       <c r="B157" s="3">
-        <v>2.9000000000000001E-2</v>
+        <v>2.9000000000000004</v>
       </c>
       <c r="C157" s="3">
-        <v>6.9000000000000006E-2</v>
+        <v>6.9</v>
       </c>
       <c r="D157" t="s">
         <v>7</v>
@@ -3626,7 +3626,7 @@
         <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -3634,10 +3634,10 @@
         <v>41609</v>
       </c>
       <c r="B158" s="3">
-        <v>2.9000000000000001E-2</v>
+        <v>2.9000000000000004</v>
       </c>
       <c r="C158" s="3">
-        <v>6.7000000000000004E-2</v>
+        <v>6.7</v>
       </c>
       <c r="D158" t="s">
         <v>7</v>
@@ -3646,7 +3646,7 @@
         <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -3654,10 +3654,10 @@
         <v>41640</v>
       </c>
       <c r="B159" s="3">
-        <v>2.9000000000000001E-2</v>
+        <v>2.9000000000000004</v>
       </c>
       <c r="C159" s="3">
-        <v>6.6000000000000003E-2</v>
+        <v>6.6000000000000005</v>
       </c>
       <c r="D159" t="s">
         <v>7</v>
@@ -3666,7 +3666,7 @@
         <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -3674,10 +3674,10 @@
         <v>41671</v>
       </c>
       <c r="B160" s="3">
-        <v>3.1E-2</v>
+        <v>3.1</v>
       </c>
       <c r="C160" s="3">
-        <v>6.7000000000000004E-2</v>
+        <v>6.7</v>
       </c>
       <c r="D160" t="s">
         <v>7</v>
@@ -3686,7 +3686,7 @@
         <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -3694,10 +3694,10 @@
         <v>41699</v>
       </c>
       <c r="B161" s="3">
-        <v>3.1E-2</v>
+        <v>3.1</v>
       </c>
       <c r="C161" s="3">
-        <v>6.7000000000000004E-2</v>
+        <v>6.7</v>
       </c>
       <c r="D161" t="s">
         <v>7</v>
@@ -3706,7 +3706,7 @@
         <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -3714,10 +3714,10 @@
         <v>41730</v>
       </c>
       <c r="B162" s="3">
-        <v>3.2000000000000001E-2</v>
+        <v>3.2</v>
       </c>
       <c r="C162" s="3">
-        <v>6.2E-2</v>
+        <v>6.2</v>
       </c>
       <c r="D162" t="s">
         <v>7</v>
@@ -3726,7 +3726,7 @@
         <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -3734,10 +3734,10 @@
         <v>41760</v>
       </c>
       <c r="B163" s="3">
-        <v>3.3000000000000002E-2</v>
+        <v>3.3000000000000003</v>
       </c>
       <c r="C163" s="3">
-        <v>6.3E-2</v>
+        <v>6.3</v>
       </c>
       <c r="D163" t="s">
         <v>7</v>
@@ -3746,7 +3746,7 @@
         <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -3754,10 +3754,10 @@
         <v>41791</v>
       </c>
       <c r="B164" s="3">
-        <v>3.5000000000000003E-2</v>
+        <v>3.5000000000000004</v>
       </c>
       <c r="C164" s="3">
-        <v>6.0999999999999999E-2</v>
+        <v>6.1</v>
       </c>
       <c r="D164" t="s">
         <v>7</v>
@@ -3766,7 +3766,7 @@
         <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -3774,10 +3774,10 @@
         <v>41821</v>
       </c>
       <c r="B165" s="3">
-        <v>3.4000000000000002E-2</v>
+        <v>3.4000000000000004</v>
       </c>
       <c r="C165" s="3">
-        <v>6.2E-2</v>
+        <v>6.2</v>
       </c>
       <c r="D165" t="s">
         <v>7</v>
@@ -3786,7 +3786,7 @@
         <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -3794,10 +3794,10 @@
         <v>41852</v>
       </c>
       <c r="B166" s="3">
-        <v>3.6999999999999998E-2</v>
+        <v>3.6999999999999997</v>
       </c>
       <c r="C166" s="3">
-        <v>6.0999999999999999E-2</v>
+        <v>6.1</v>
       </c>
       <c r="D166" t="s">
         <v>7</v>
@@ -3806,7 +3806,7 @@
         <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -3814,10 +3814,10 @@
         <v>41883</v>
       </c>
       <c r="B167" s="3">
-        <v>3.4000000000000002E-2</v>
+        <v>3.4000000000000004</v>
       </c>
       <c r="C167" s="3">
-        <v>5.8999999999999997E-2</v>
+        <v>5.8999999999999995</v>
       </c>
       <c r="D167" t="s">
         <v>7</v>
@@ -3826,7 +3826,7 @@
         <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -3834,10 +3834,10 @@
         <v>41913</v>
       </c>
       <c r="B168" s="3">
-        <v>3.5000000000000003E-2</v>
+        <v>3.5000000000000004</v>
       </c>
       <c r="C168" s="3">
-        <v>5.7000000000000002E-2</v>
+        <v>5.7</v>
       </c>
       <c r="D168" t="s">
         <v>7</v>
@@ -3846,7 +3846,7 @@
         <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -3854,10 +3854,10 @@
         <v>41944</v>
       </c>
       <c r="B169" s="3">
-        <v>3.3000000000000002E-2</v>
+        <v>3.3000000000000003</v>
       </c>
       <c r="C169" s="3">
-        <v>5.8000000000000003E-2</v>
+        <v>5.8000000000000007</v>
       </c>
       <c r="D169" t="s">
         <v>7</v>
@@ -3866,7 +3866,7 @@
         <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -3874,10 +3874,10 @@
         <v>41974</v>
       </c>
       <c r="B170" s="3">
-        <v>3.5000000000000003E-2</v>
+        <v>3.5000000000000004</v>
       </c>
       <c r="C170" s="3">
-        <v>5.6000000000000001E-2</v>
+        <v>5.6000000000000005</v>
       </c>
       <c r="D170" t="s">
         <v>7</v>
@@ -3886,7 +3886,7 @@
         <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -3894,10 +3894,10 @@
         <v>42005</v>
       </c>
       <c r="B171" s="3">
-        <v>3.6999999999999998E-2</v>
+        <v>3.6999999999999997</v>
       </c>
       <c r="C171" s="3">
-        <v>5.7000000000000002E-2</v>
+        <v>5.7</v>
       </c>
       <c r="D171" t="s">
         <v>7</v>
@@ -3906,7 +3906,7 @@
         <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -3914,10 +3914,10 @@
         <v>42036</v>
       </c>
       <c r="B172" s="3">
-        <v>3.6999999999999998E-2</v>
+        <v>3.6999999999999997</v>
       </c>
       <c r="C172" s="3">
-        <v>5.5E-2</v>
+        <v>5.5</v>
       </c>
       <c r="D172" t="s">
         <v>7</v>
@@ -3926,7 +3926,7 @@
         <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -3934,10 +3934,10 @@
         <v>42064</v>
       </c>
       <c r="B173" s="3">
-        <v>3.5999999999999997E-2</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="C173" s="3">
-        <v>5.3999999999999999E-2</v>
+        <v>5.4</v>
       </c>
       <c r="D173" t="s">
         <v>7</v>
@@ -3946,7 +3946,7 @@
         <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -3954,10 +3954,10 @@
         <v>42095</v>
       </c>
       <c r="B174" s="3">
-        <v>3.7999999999999999E-2</v>
+        <v>3.8</v>
       </c>
       <c r="C174" s="3">
-        <v>5.3999999999999999E-2</v>
+        <v>5.4</v>
       </c>
       <c r="D174" t="s">
         <v>7</v>
@@ -3966,7 +3966,7 @@
         <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -3974,10 +3974,10 @@
         <v>42125</v>
       </c>
       <c r="B175" s="3">
-        <v>3.7999999999999999E-2</v>
+        <v>3.8</v>
       </c>
       <c r="C175" s="3">
-        <v>5.6000000000000001E-2</v>
+        <v>5.6000000000000005</v>
       </c>
       <c r="D175" t="s">
         <v>7</v>
@@ -3986,7 +3986,7 @@
         <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -3994,10 +3994,10 @@
         <v>42156</v>
       </c>
       <c r="B176" s="3">
-        <v>3.5999999999999997E-2</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="C176" s="3">
-        <v>5.2999999999999999E-2</v>
+        <v>5.3</v>
       </c>
       <c r="D176" t="s">
         <v>7</v>
@@ -4006,7 +4006,7 @@
         <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -4014,10 +4014,10 @@
         <v>42186</v>
       </c>
       <c r="B177" s="3">
-        <v>4.1000000000000002E-2</v>
+        <v>4.1000000000000005</v>
       </c>
       <c r="C177" s="3">
-        <v>5.1999999999999998E-2</v>
+        <v>5.2</v>
       </c>
       <c r="D177" t="s">
         <v>7</v>
@@ -4026,7 +4026,7 @@
         <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -4034,10 +4034,10 @@
         <v>42217</v>
       </c>
       <c r="B178" s="3">
-        <v>3.6999999999999998E-2</v>
+        <v>3.6999999999999997</v>
       </c>
       <c r="C178" s="3">
-        <v>5.0999999999999997E-2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D178" t="s">
         <v>7</v>
@@ -4046,7 +4046,7 @@
         <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -4054,10 +4054,10 @@
         <v>42248</v>
       </c>
       <c r="B179" s="3">
-        <v>3.6999999999999998E-2</v>
+        <v>3.6999999999999997</v>
       </c>
       <c r="C179" s="3">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="D179" t="s">
         <v>7</v>
@@ -4066,7 +4066,7 @@
         <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -4074,10 +4074,10 @@
         <v>42278</v>
       </c>
       <c r="B180" s="3">
-        <v>3.9E-2</v>
+        <v>3.9</v>
       </c>
       <c r="C180" s="3">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="D180" t="s">
         <v>7</v>
@@ -4086,7 +4086,7 @@
         <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -4094,10 +4094,10 @@
         <v>42309</v>
       </c>
       <c r="B181" s="3">
-        <v>3.7999999999999999E-2</v>
+        <v>3.8</v>
       </c>
       <c r="C181" s="3">
-        <v>5.0999999999999997E-2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D181" t="s">
         <v>7</v>
@@ -4106,7 +4106,7 @@
         <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -4114,10 +4114,10 @@
         <v>42339</v>
       </c>
       <c r="B182" s="3">
-        <v>3.9E-2</v>
+        <v>3.9</v>
       </c>
       <c r="C182" s="3">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="D182" t="s">
         <v>7</v>
@@ -4126,7 +4126,7 @@
         <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -4134,10 +4134,10 @@
         <v>42370</v>
       </c>
       <c r="B183" s="3">
-        <v>0.04</v>
+        <v>4</v>
       </c>
       <c r="C183" s="3">
-        <v>4.8000000000000001E-2</v>
+        <v>4.8</v>
       </c>
       <c r="D183" t="s">
         <v>7</v>
@@ -4146,7 +4146,7 @@
         <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -4154,10 +4154,10 @@
         <v>42401</v>
       </c>
       <c r="B184" s="3">
-        <v>3.9E-2</v>
+        <v>3.9</v>
       </c>
       <c r="C184" s="3">
-        <v>4.9000000000000002E-2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D184" t="s">
         <v>7</v>
@@ -4166,7 +4166,7 @@
         <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -4174,10 +4174,10 @@
         <v>42430</v>
       </c>
       <c r="B185" s="3">
-        <v>4.1000000000000002E-2</v>
+        <v>4.1000000000000005</v>
       </c>
       <c r="C185" s="3">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="D185" t="s">
         <v>7</v>
@@ -4186,7 +4186,7 @@
         <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -4194,10 +4194,10 @@
         <v>42461</v>
       </c>
       <c r="B186" s="3">
-        <v>3.9E-2</v>
+        <v>3.9</v>
       </c>
       <c r="C186" s="3">
-        <v>5.0999999999999997E-2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D186" t="s">
         <v>7</v>
@@ -4206,7 +4206,7 @@
         <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -4214,10 +4214,10 @@
         <v>42491</v>
       </c>
       <c r="B187" s="3">
-        <v>3.9E-2</v>
+        <v>3.9</v>
       </c>
       <c r="C187" s="3">
-        <v>4.8000000000000001E-2</v>
+        <v>4.8</v>
       </c>
       <c r="D187" t="s">
         <v>7</v>
@@ -4226,7 +4226,7 @@
         <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -4234,10 +4234,10 @@
         <v>42522</v>
       </c>
       <c r="B188" s="3">
-        <v>3.7999999999999999E-2</v>
+        <v>3.8</v>
       </c>
       <c r="C188" s="3">
-        <v>4.9000000000000002E-2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D188" t="s">
         <v>7</v>
@@ -4246,7 +4246,7 @@
         <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -4254,10 +4254,10 @@
         <v>42552</v>
       </c>
       <c r="B189" s="3">
-        <v>0.04</v>
+        <v>4</v>
       </c>
       <c r="C189" s="3">
-        <v>4.8000000000000001E-2</v>
+        <v>4.8</v>
       </c>
       <c r="D189" t="s">
         <v>7</v>
@@ -4266,7 +4266,7 @@
         <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -4274,10 +4274,10 @@
         <v>42583</v>
       </c>
       <c r="B190" s="3">
-        <v>3.7999999999999999E-2</v>
+        <v>3.8</v>
       </c>
       <c r="C190" s="3">
-        <v>4.9000000000000002E-2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D190" t="s">
         <v>7</v>
@@ -4286,7 +4286,7 @@
         <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -4294,10 +4294,10 @@
         <v>42614</v>
       </c>
       <c r="B191" s="3">
-        <v>3.9E-2</v>
+        <v>3.9</v>
       </c>
       <c r="C191" s="3">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="D191" t="s">
         <v>7</v>
@@ -4306,7 +4306,7 @@
         <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -4314,10 +4314,10 @@
         <v>42644</v>
       </c>
       <c r="B192" s="3">
-        <v>3.6999999999999998E-2</v>
+        <v>3.6999999999999997</v>
       </c>
       <c r="C192" s="3">
-        <v>4.9000000000000002E-2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D192" t="s">
         <v>7</v>
@@ -4326,7 +4326,7 @@
         <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -4334,10 +4334,10 @@
         <v>42675</v>
       </c>
       <c r="B193" s="3">
-        <v>0.04</v>
+        <v>4</v>
       </c>
       <c r="C193" s="3">
-        <v>4.7E-2</v>
+        <v>4.7</v>
       </c>
       <c r="D193" t="s">
         <v>7</v>
@@ -4346,7 +4346,7 @@
         <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -4354,10 +4354,10 @@
         <v>42705</v>
       </c>
       <c r="B194" s="3">
-        <v>3.9E-2</v>
+        <v>3.9</v>
       </c>
       <c r="C194" s="3">
-        <v>4.7E-2</v>
+        <v>4.7</v>
       </c>
       <c r="D194" t="s">
         <v>7</v>
@@ -4366,7 +4366,7 @@
         <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -4374,10 +4374,10 @@
         <v>42736</v>
       </c>
       <c r="B195" s="3">
-        <v>3.6999999999999998E-2</v>
+        <v>3.6999999999999997</v>
       </c>
       <c r="C195" s="3">
-        <v>4.7E-2</v>
+        <v>4.7</v>
       </c>
       <c r="D195" t="s">
         <v>7</v>
@@ -4386,7 +4386,7 @@
         <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -4394,10 +4394,10 @@
         <v>42767</v>
       </c>
       <c r="B196" s="3">
-        <v>3.9E-2</v>
+        <v>3.9</v>
       </c>
       <c r="C196" s="3">
-        <v>4.5999999999999999E-2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D196" t="s">
         <v>7</v>
@@ -4406,7 +4406,7 @@
         <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -4414,10 +4414,10 @@
         <v>42795</v>
       </c>
       <c r="B197" s="3">
-        <v>3.7999999999999999E-2</v>
+        <v>3.8</v>
       </c>
       <c r="C197" s="3">
-        <v>4.3999999999999997E-2</v>
+        <v>4.3999999999999995</v>
       </c>
       <c r="D197" t="s">
         <v>7</v>
@@ -4426,7 +4426,7 @@
         <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -4434,10 +4434,10 @@
         <v>42826</v>
       </c>
       <c r="B198" s="3">
-        <v>0.04</v>
+        <v>4</v>
       </c>
       <c r="C198" s="3">
-        <v>4.3999999999999997E-2</v>
+        <v>4.3999999999999995</v>
       </c>
       <c r="D198" t="s">
         <v>7</v>
@@ -4446,7 +4446,7 @@
         <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -4454,10 +4454,10 @@
         <v>42856</v>
       </c>
       <c r="B199" s="3">
-        <v>3.7999999999999999E-2</v>
+        <v>3.8</v>
       </c>
       <c r="C199" s="3">
-        <v>4.3999999999999997E-2</v>
+        <v>4.3999999999999995</v>
       </c>
       <c r="D199" t="s">
         <v>7</v>
@@ -4466,7 +4466,7 @@
         <v>11</v>
       </c>
       <c r="F199" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -4474,10 +4474,10 @@
         <v>42887</v>
       </c>
       <c r="B200" s="3">
-        <v>4.1000000000000002E-2</v>
+        <v>4.1000000000000005</v>
       </c>
       <c r="C200" s="3">
-        <v>4.2999999999999997E-2</v>
+        <v>4.3</v>
       </c>
       <c r="D200" t="s">
         <v>7</v>
@@ -4486,7 +4486,7 @@
         <v>11</v>
       </c>
       <c r="F200" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -4494,10 +4494,10 @@
         <v>42917</v>
       </c>
       <c r="B201" s="3">
-        <v>4.1000000000000002E-2</v>
+        <v>4.1000000000000005</v>
       </c>
       <c r="C201" s="3">
-        <v>4.2999999999999997E-2</v>
+        <v>4.3</v>
       </c>
       <c r="D201" t="s">
         <v>7</v>
@@ -4506,7 +4506,7 @@
         <v>11</v>
       </c>
       <c r="F201" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -4514,10 +4514,10 @@
         <v>42948</v>
       </c>
       <c r="B202" s="3">
-        <v>4.1000000000000002E-2</v>
+        <v>4.1000000000000005</v>
       </c>
       <c r="C202" s="3">
-        <v>4.3999999999999997E-2</v>
+        <v>4.3999999999999995</v>
       </c>
       <c r="D202" t="s">
         <v>7</v>
@@ -4526,7 +4526,7 @@
         <v>11</v>
       </c>
       <c r="F202" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -4534,10 +4534,10 @@
         <v>42979</v>
       </c>
       <c r="B203" s="3">
-        <v>4.1000000000000002E-2</v>
+        <v>4.1000000000000005</v>
       </c>
       <c r="C203" s="3">
-        <v>4.2999999999999997E-2</v>
+        <v>4.3</v>
       </c>
       <c r="D203" t="s">
         <v>7</v>
@@ -4546,7 +4546,7 @@
         <v>11</v>
       </c>
       <c r="F203" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -4554,10 +4554,10 @@
         <v>43009</v>
       </c>
       <c r="B204" s="3">
-        <v>4.2000000000000003E-2</v>
+        <v>4.2</v>
       </c>
       <c r="C204" s="3">
-        <v>4.2000000000000003E-2</v>
+        <v>4.2</v>
       </c>
       <c r="D204" t="s">
         <v>7</v>
@@ -4566,7 +4566,7 @@
         <v>11</v>
       </c>
       <c r="F204" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -4574,10 +4574,10 @@
         <v>43040</v>
       </c>
       <c r="B205" s="3">
-        <v>4.1000000000000002E-2</v>
+        <v>4.1000000000000005</v>
       </c>
       <c r="C205" s="3">
-        <v>4.2000000000000003E-2</v>
+        <v>4.2</v>
       </c>
       <c r="D205" t="s">
         <v>7</v>
@@ -4586,7 +4586,7 @@
         <v>11</v>
       </c>
       <c r="F205" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -4594,10 +4594,10 @@
         <v>43070</v>
       </c>
       <c r="B206" s="3">
-        <v>4.1000000000000002E-2</v>
+        <v>4.1000000000000005</v>
       </c>
       <c r="C206" s="3">
-        <v>4.1000000000000002E-2</v>
+        <v>4.1000000000000005</v>
       </c>
       <c r="D206" t="s">
         <v>7</v>
@@ -4606,7 +4606,7 @@
         <v>11</v>
       </c>
       <c r="F206" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -4614,10 +4614,10 @@
         <v>43101</v>
       </c>
       <c r="B207" s="3">
-        <v>4.2999999999999997E-2</v>
+        <v>4.3</v>
       </c>
       <c r="C207" s="3">
-        <v>0.04</v>
+        <v>4</v>
       </c>
       <c r="D207" t="s">
         <v>7</v>
@@ -4626,7 +4626,7 @@
         <v>11</v>
       </c>
       <c r="F207" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -4634,10 +4634,10 @@
         <v>43132</v>
       </c>
       <c r="B208" s="3">
-        <v>4.2999999999999997E-2</v>
+        <v>4.3</v>
       </c>
       <c r="C208" s="3">
-        <v>4.1000000000000002E-2</v>
+        <v>4.1000000000000005</v>
       </c>
       <c r="D208" t="s">
         <v>7</v>
@@ -4646,7 +4646,7 @@
         <v>11</v>
       </c>
       <c r="F208" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -4654,10 +4654,10 @@
         <v>43160</v>
       </c>
       <c r="B209" s="3">
-        <v>4.3999999999999997E-2</v>
+        <v>4.3999999999999995</v>
       </c>
       <c r="C209" s="3">
-        <v>0.04</v>
+        <v>4</v>
       </c>
       <c r="D209" t="s">
         <v>7</v>
@@ -4666,7 +4666,7 @@
         <v>11</v>
       </c>
       <c r="F209" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -4674,10 +4674,10 @@
         <v>43191</v>
       </c>
       <c r="B210" s="3">
-        <v>4.3999999999999997E-2</v>
+        <v>4.3999999999999995</v>
       </c>
       <c r="C210" s="3">
-        <v>0.04</v>
+        <v>4</v>
       </c>
       <c r="D210" t="s">
         <v>7</v>
@@ -4686,7 +4686,7 @@
         <v>11</v>
       </c>
       <c r="F210" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -4694,10 +4694,10 @@
         <v>43221</v>
       </c>
       <c r="B211" s="3">
-        <v>4.4999999999999998E-2</v>
+        <v>4.5</v>
       </c>
       <c r="C211" s="3">
-        <v>3.7999999999999999E-2</v>
+        <v>3.8</v>
       </c>
       <c r="D211" t="s">
         <v>7</v>
@@ -4706,7 +4706,7 @@
         <v>11</v>
       </c>
       <c r="F211" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -4714,10 +4714,10 @@
         <v>43252</v>
       </c>
       <c r="B212" s="3">
-        <v>4.5999999999999999E-2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C212" s="3">
-        <v>0.04</v>
+        <v>4</v>
       </c>
       <c r="D212" t="s">
         <v>7</v>
@@ -4726,7 +4726,7 @@
         <v>11</v>
       </c>
       <c r="F212" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -4734,10 +4734,10 @@
         <v>43282</v>
       </c>
       <c r="B213" s="3">
-        <v>4.5999999999999999E-2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C213" s="3">
-        <v>3.7999999999999999E-2</v>
+        <v>3.8</v>
       </c>
       <c r="D213" t="s">
         <v>7</v>
@@ -4746,7 +4746,7 @@
         <v>11</v>
       </c>
       <c r="F213" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -4754,10 +4754,10 @@
         <v>43313</v>
       </c>
       <c r="B214" s="3">
-        <v>4.5999999999999999E-2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C214" s="3">
-        <v>3.7999999999999999E-2</v>
+        <v>3.8</v>
       </c>
       <c r="D214" t="s">
         <v>7</v>
@@ -4766,7 +4766,7 @@
         <v>11</v>
       </c>
       <c r="F214" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -4774,10 +4774,10 @@
         <v>43344</v>
       </c>
       <c r="B215" s="3">
-        <v>4.7E-2</v>
+        <v>4.7</v>
       </c>
       <c r="C215" s="3">
-        <v>3.6999999999999998E-2</v>
+        <v>3.6999999999999997</v>
       </c>
       <c r="D215" t="s">
         <v>7</v>
@@ -4786,7 +4786,7 @@
         <v>11</v>
       </c>
       <c r="F215" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -4794,10 +4794,10 @@
         <v>43374</v>
       </c>
       <c r="B216" s="3">
-        <v>4.7E-2</v>
+        <v>4.7</v>
       </c>
       <c r="C216" s="3">
-        <v>3.7999999999999999E-2</v>
+        <v>3.8</v>
       </c>
       <c r="D216" t="s">
         <v>7</v>
@@ -4806,7 +4806,7 @@
         <v>11</v>
       </c>
       <c r="F216" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -4814,10 +4814,10 @@
         <v>43405</v>
       </c>
       <c r="B217" s="3">
-        <v>4.8000000000000001E-2</v>
+        <v>4.8</v>
       </c>
       <c r="C217" s="3">
-        <v>3.7999999999999999E-2</v>
+        <v>3.8</v>
       </c>
       <c r="D217" t="s">
         <v>7</v>
@@ -4826,7 +4826,7 @@
         <v>11</v>
       </c>
       <c r="F217" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -4834,10 +4834,10 @@
         <v>43435</v>
       </c>
       <c r="B218" s="3">
-        <v>4.7E-2</v>
+        <v>4.7</v>
       </c>
       <c r="C218" s="3">
-        <v>3.9E-2</v>
+        <v>3.9</v>
       </c>
       <c r="D218" t="s">
         <v>7</v>
@@ -4846,7 +4846,7 @@
         <v>11</v>
       </c>
       <c r="F218" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -4854,10 +4854,10 @@
         <v>43466</v>
       </c>
       <c r="B219" s="3">
-        <v>4.7E-2</v>
+        <v>4.7</v>
       </c>
       <c r="C219" s="3">
-        <v>0.04</v>
+        <v>4</v>
       </c>
       <c r="D219" t="s">
         <v>7</v>
@@ -4866,7 +4866,7 @@
         <v>11</v>
       </c>
       <c r="F219" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -4874,10 +4874,10 @@
         <v>43497</v>
       </c>
       <c r="B220" s="3">
-        <v>4.4999999999999998E-2</v>
+        <v>4.5</v>
       </c>
       <c r="C220" s="3">
-        <v>3.7999999999999999E-2</v>
+        <v>3.8</v>
       </c>
       <c r="D220" t="s">
         <v>7</v>
@@ -4886,7 +4886,7 @@
         <v>11</v>
       </c>
       <c r="F220" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -4894,10 +4894,10 @@
         <v>43525</v>
       </c>
       <c r="B221" s="3">
-        <v>4.5999999999999999E-2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C221" s="3">
-        <v>3.7999999999999999E-2</v>
+        <v>3.8</v>
       </c>
       <c r="D221" t="s">
         <v>7</v>
@@ -4906,7 +4906,7 @@
         <v>11</v>
       </c>
       <c r="F221" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -4914,10 +4914,10 @@
         <v>43556</v>
       </c>
       <c r="B222" s="3">
-        <v>4.5999999999999999E-2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C222" s="3">
-        <v>3.5999999999999997E-2</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="D222" t="s">
         <v>7</v>
@@ -4926,7 +4926,7 @@
         <v>11</v>
       </c>
       <c r="F222" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -4934,10 +4934,10 @@
         <v>43586</v>
       </c>
       <c r="B223" s="3">
-        <v>4.5999999999999999E-2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C223" s="3">
-        <v>3.5999999999999997E-2</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="D223" t="s">
         <v>7</v>
@@ -4946,7 +4946,7 @@
         <v>11</v>
       </c>
       <c r="F223" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -4954,10 +4954,10 @@
         <v>43617</v>
       </c>
       <c r="B224" s="3">
-        <v>4.4999999999999998E-2</v>
+        <v>4.5</v>
       </c>
       <c r="C224" s="3">
-        <v>3.5999999999999997E-2</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="D224" t="s">
         <v>7</v>
@@ -4966,7 +4966,7 @@
         <v>11</v>
       </c>
       <c r="F224" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -4974,10 +4974,10 @@
         <v>43647</v>
       </c>
       <c r="B225" s="3">
-        <v>4.4999999999999998E-2</v>
+        <v>4.5</v>
       </c>
       <c r="C225" s="3">
-        <v>3.6999999999999998E-2</v>
+        <v>3.6999999999999997</v>
       </c>
       <c r="D225" t="s">
         <v>7</v>
@@ -4986,7 +4986,7 @@
         <v>11</v>
       </c>
       <c r="F225" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -4994,10 +4994,10 @@
         <v>43678</v>
       </c>
       <c r="B226" s="3">
-        <v>4.4999999999999998E-2</v>
+        <v>4.5</v>
       </c>
       <c r="C226" s="3">
-        <v>3.6999999999999998E-2</v>
+        <v>3.6999999999999997</v>
       </c>
       <c r="D226" t="s">
         <v>7</v>
@@ -5006,7 +5006,7 @@
         <v>11</v>
       </c>
       <c r="F226" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -5014,10 +5014,10 @@
         <v>43709</v>
       </c>
       <c r="B227" s="3">
-        <v>4.4999999999999998E-2</v>
+        <v>4.5</v>
       </c>
       <c r="C227" s="3">
-        <v>3.5000000000000003E-2</v>
+        <v>3.5000000000000004</v>
       </c>
       <c r="D227" t="s">
         <v>7</v>
@@ -5026,7 +5026,7 @@
         <v>11</v>
       </c>
       <c r="F227" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -5034,10 +5034,10 @@
         <v>43739</v>
       </c>
       <c r="B228" s="3">
-        <v>4.7E-2</v>
+        <v>4.7</v>
       </c>
       <c r="C228" s="3">
-        <v>3.5999999999999997E-2</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="D228" t="s">
         <v>7</v>
@@ -5046,7 +5046,7 @@
         <v>11</v>
       </c>
       <c r="F228" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -5054,10 +5054,10 @@
         <v>43770</v>
       </c>
       <c r="B229" s="3">
-        <v>4.3999999999999997E-2</v>
+        <v>4.3999999999999995</v>
       </c>
       <c r="C229" s="3">
-        <v>3.5999999999999997E-2</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="D229" t="s">
         <v>7</v>
@@ -5066,7 +5066,7 @@
         <v>11</v>
       </c>
       <c r="F229" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -5074,10 +5074,10 @@
         <v>43800</v>
       </c>
       <c r="B230" s="3">
-        <v>4.2999999999999997E-2</v>
+        <v>4.3</v>
       </c>
       <c r="C230" s="3">
-        <v>3.5999999999999997E-2</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="D230" t="s">
         <v>7</v>
@@ -5086,7 +5086,7 @@
         <v>11</v>
       </c>
       <c r="F230" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -5094,10 +5094,10 @@
         <v>43831</v>
       </c>
       <c r="B231" s="3">
-        <v>4.4999999999999998E-2</v>
+        <v>4.5</v>
       </c>
       <c r="C231" s="3">
-        <v>3.5000000000000003E-2</v>
+        <v>3.5000000000000004</v>
       </c>
       <c r="D231" t="s">
         <v>7</v>
@@ -5106,7 +5106,7 @@
         <v>12</v>
       </c>
       <c r="F231" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -5114,10 +5114,10 @@
         <v>43862</v>
       </c>
       <c r="B232" s="3">
-        <v>4.3999999999999997E-2</v>
+        <v>4.3999999999999995</v>
       </c>
       <c r="C232" s="3">
-        <v>3.5000000000000003E-2</v>
+        <v>3.5000000000000004</v>
       </c>
       <c r="D232" t="s">
         <v>7</v>
@@ -5126,7 +5126,7 @@
         <v>12</v>
       </c>
       <c r="F232" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -5134,10 +5134,10 @@
         <v>43891</v>
       </c>
       <c r="B233" s="3">
-        <v>3.7999999999999999E-2</v>
+        <v>3.8</v>
       </c>
       <c r="C233" s="3">
-        <v>4.3999999999999997E-2</v>
+        <v>4.3999999999999995</v>
       </c>
       <c r="D233" t="s">
         <v>7</v>
@@ -5146,7 +5146,7 @@
         <v>12</v>
       </c>
       <c r="F233" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -5154,10 +5154,10 @@
         <v>43922</v>
       </c>
       <c r="B234" s="3">
-        <v>3.5000000000000003E-2</v>
+        <v>3.5000000000000004</v>
       </c>
       <c r="C234" s="3">
-        <v>0.14699999999999999</v>
+        <v>14.7</v>
       </c>
       <c r="D234" t="s">
         <v>8</v>
@@ -5166,7 +5166,7 @@
         <v>12</v>
       </c>
       <c r="F234" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -5174,10 +5174,10 @@
         <v>43952</v>
       </c>
       <c r="B235" s="3">
-        <v>3.9E-2</v>
+        <v>3.9</v>
       </c>
       <c r="C235" s="3">
-        <v>0.13200000000000001</v>
+        <v>13.200000000000001</v>
       </c>
       <c r="D235" t="s">
         <v>8</v>
@@ -5186,7 +5186,7 @@
         <v>12</v>
       </c>
       <c r="F235" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -5194,10 +5194,10 @@
         <v>43983</v>
       </c>
       <c r="B236" s="3">
-        <v>4.2000000000000003E-2</v>
+        <v>4.2</v>
       </c>
       <c r="C236" s="3">
-        <v>0.11</v>
+        <v>11</v>
       </c>
       <c r="D236" t="s">
         <v>8</v>
@@ -5206,7 +5206,7 @@
         <v>12</v>
       </c>
       <c r="F236" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -5214,10 +5214,10 @@
         <v>44013</v>
       </c>
       <c r="B237" s="3">
-        <v>4.4999999999999998E-2</v>
+        <v>4.5</v>
       </c>
       <c r="C237" s="3">
-        <v>0.10199999999999999</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="D237" t="s">
         <v>8</v>
@@ -5226,7 +5226,7 @@
         <v>12</v>
       </c>
       <c r="F237" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -5234,10 +5234,10 @@
         <v>44044</v>
       </c>
       <c r="B238" s="3">
-        <v>4.2999999999999997E-2</v>
+        <v>4.3</v>
       </c>
       <c r="C238" s="3">
-        <v>8.4000000000000005E-2</v>
+        <v>8.4</v>
       </c>
       <c r="D238" t="s">
         <v>8</v>
@@ -5246,7 +5246,7 @@
         <v>12</v>
       </c>
       <c r="F238" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -5254,10 +5254,10 @@
         <v>44075</v>
       </c>
       <c r="B239" s="3">
-        <v>4.3999999999999997E-2</v>
+        <v>4.3999999999999995</v>
       </c>
       <c r="C239" s="3">
-        <v>7.9000000000000001E-2</v>
+        <v>7.9</v>
       </c>
       <c r="D239" t="s">
         <v>8</v>
@@ -5266,7 +5266,7 @@
         <v>12</v>
       </c>
       <c r="F239" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -5274,10 +5274,10 @@
         <v>44105</v>
       </c>
       <c r="B240" s="3">
-        <v>4.5999999999999999E-2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C240" s="3">
-        <v>6.9000000000000006E-2</v>
+        <v>6.9</v>
       </c>
       <c r="D240" t="s">
         <v>8</v>
@@ -5286,7 +5286,7 @@
         <v>12</v>
       </c>
       <c r="F240" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -5294,10 +5294,10 @@
         <v>44136</v>
       </c>
       <c r="B241" s="3">
-        <v>4.5999999999999999E-2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C241" s="3">
-        <v>6.7000000000000004E-2</v>
+        <v>6.7</v>
       </c>
       <c r="D241" t="s">
         <v>8</v>
@@ -5306,7 +5306,7 @@
         <v>12</v>
       </c>
       <c r="F241" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -5314,10 +5314,10 @@
         <v>44166</v>
       </c>
       <c r="B242" s="3">
-        <v>4.5999999999999999E-2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C242" s="3">
-        <v>6.7000000000000004E-2</v>
+        <v>6.7</v>
       </c>
       <c r="D242" t="s">
         <v>8</v>
@@ -5326,7 +5326,7 @@
         <v>12</v>
       </c>
       <c r="F242" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -5334,10 +5334,10 @@
         <v>44197</v>
       </c>
       <c r="B243" s="3">
-        <v>4.8000000000000001E-2</v>
+        <v>4.8</v>
       </c>
       <c r="C243" s="3">
-        <v>6.4000000000000001E-2</v>
+        <v>6.4</v>
       </c>
       <c r="D243" t="s">
         <v>8</v>
@@ -5346,7 +5346,7 @@
         <v>12</v>
       </c>
       <c r="F243" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -5354,10 +5354,10 @@
         <v>44228</v>
       </c>
       <c r="B244" s="3">
-        <v>5.1999999999999998E-2</v>
+        <v>5.2</v>
       </c>
       <c r="C244" s="3">
-        <v>6.2E-2</v>
+        <v>6.2</v>
       </c>
       <c r="D244" t="s">
         <v>8</v>
@@ -5366,7 +5366,7 @@
         <v>12</v>
       </c>
       <c r="F244" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -5374,10 +5374,10 @@
         <v>44256</v>
       </c>
       <c r="B245" s="3">
-        <v>5.5E-2</v>
+        <v>5.5</v>
       </c>
       <c r="C245" s="3">
-        <v>0.06</v>
+        <v>6</v>
       </c>
       <c r="D245" t="s">
         <v>8</v>
@@ -5386,7 +5386,7 @@
         <v>12</v>
       </c>
       <c r="F245" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -5394,10 +5394,10 @@
         <v>44287</v>
       </c>
       <c r="B246" s="3">
-        <v>0.06</v>
+        <v>6</v>
       </c>
       <c r="C246" s="3">
-        <v>0.06</v>
+        <v>6</v>
       </c>
       <c r="D246" t="s">
         <v>8</v>
@@ -5406,7 +5406,7 @@
         <v>12</v>
       </c>
       <c r="F246" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="247" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -5414,10 +5414,10 @@
         <v>44317</v>
       </c>
       <c r="B247" s="3">
-        <v>6.2E-2</v>
+        <v>6.2</v>
       </c>
       <c r="C247" s="3">
-        <v>5.8000000000000003E-2</v>
+        <v>5.8000000000000007</v>
       </c>
       <c r="D247" t="s">
         <v>8</v>
@@ -5426,7 +5426,7 @@
         <v>12</v>
       </c>
       <c r="F247" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -5434,10 +5434,10 @@
         <v>44348</v>
       </c>
       <c r="B248" s="3">
-        <v>6.3E-2</v>
+        <v>6.3</v>
       </c>
       <c r="C248" s="3">
-        <v>5.8999999999999997E-2</v>
+        <v>5.8999999999999995</v>
       </c>
       <c r="D248" t="s">
         <v>8</v>
@@ -5446,7 +5446,7 @@
         <v>12</v>
       </c>
       <c r="F248" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -5454,10 +5454,10 @@
         <v>44378</v>
       </c>
       <c r="B249" s="3">
-        <v>6.9000000000000006E-2</v>
+        <v>6.9</v>
       </c>
       <c r="C249" s="3">
-        <v>5.3999999999999999E-2</v>
+        <v>5.4</v>
       </c>
       <c r="D249" t="s">
         <v>8</v>
@@ -5466,7 +5466,7 @@
         <v>12</v>
       </c>
       <c r="F249" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="250" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -5474,10 +5474,10 @@
         <v>44409</v>
       </c>
       <c r="B250" s="3">
-        <v>6.7000000000000004E-2</v>
+        <v>6.7</v>
       </c>
       <c r="C250" s="3">
-        <v>5.1999999999999998E-2</v>
+        <v>5.2</v>
       </c>
       <c r="D250" t="s">
         <v>8</v>
@@ -5486,7 +5486,7 @@
         <v>12</v>
       </c>
       <c r="F250" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -5494,10 +5494,10 @@
         <v>44440</v>
       </c>
       <c r="B251" s="3">
-        <v>6.8000000000000005E-2</v>
+        <v>6.8000000000000007</v>
       </c>
       <c r="C251" s="3">
-        <v>4.7E-2</v>
+        <v>4.7</v>
       </c>
       <c r="D251" t="s">
         <v>8</v>
@@ -5506,7 +5506,7 @@
         <v>12</v>
       </c>
       <c r="F251" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -5514,10 +5514,10 @@
         <v>44470</v>
       </c>
       <c r="B252" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="C252" s="3">
-        <v>4.5999999999999999E-2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D252" t="s">
         <v>8</v>
@@ -5526,7 +5526,7 @@
         <v>12</v>
       </c>
       <c r="F252" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -5534,10 +5534,10 @@
         <v>44501</v>
       </c>
       <c r="B253" s="3">
-        <v>6.8000000000000005E-2</v>
+        <v>6.8000000000000007</v>
       </c>
       <c r="C253" s="3">
-        <v>4.2000000000000003E-2</v>
+        <v>4.2</v>
       </c>
       <c r="D253" t="s">
         <v>8</v>
@@ -5546,7 +5546,7 @@
         <v>12</v>
       </c>
       <c r="F253" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -5554,10 +5554,10 @@
         <v>44531</v>
       </c>
       <c r="B254" s="3">
-        <v>7.0999999999999994E-2</v>
+        <v>7.1</v>
       </c>
       <c r="C254" s="3">
-        <v>3.9E-2</v>
+        <v>3.9</v>
       </c>
       <c r="D254" t="s">
         <v>8</v>
@@ -5566,7 +5566,7 @@
         <v>12</v>
       </c>
       <c r="F254" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="255" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -5574,10 +5574,10 @@
         <v>44562</v>
       </c>
       <c r="B255" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="C255" s="3">
-        <v>0.04</v>
+        <v>4</v>
       </c>
       <c r="D255" t="s">
         <v>8</v>
@@ -5586,7 +5586,7 @@
         <v>12</v>
       </c>
       <c r="F255" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -5594,10 +5594,10 @@
         <v>44593</v>
       </c>
       <c r="B256" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="C256" s="3">
-        <v>3.7999999999999999E-2</v>
+        <v>3.8</v>
       </c>
       <c r="D256" t="s">
         <v>8</v>
@@ -5606,7 +5606,7 @@
         <v>12</v>
       </c>
       <c r="F256" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -5614,10 +5614,10 @@
         <v>44621</v>
       </c>
       <c r="B257" s="3">
-        <v>7.2999999999999995E-2</v>
+        <v>7.3</v>
       </c>
       <c r="C257" s="3">
-        <v>3.5999999999999997E-2</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="D257" t="s">
         <v>8</v>
@@ -5626,7 +5626,7 @@
         <v>12</v>
       </c>
       <c r="F257" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -5634,10 +5634,10 @@
         <v>44652</v>
       </c>
       <c r="B258" s="3">
-        <v>7.1999999999999995E-2</v>
+        <v>7.1999999999999993</v>
       </c>
       <c r="C258" s="3">
-        <v>3.5999999999999997E-2</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="D258" t="s">
         <v>8</v>
@@ -5646,7 +5646,7 @@
         <v>12</v>
       </c>
       <c r="F258" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -5654,10 +5654,10 @@
         <v>44682</v>
       </c>
       <c r="B259" s="3">
-        <v>6.9000000000000006E-2</v>
+        <v>6.9</v>
       </c>
       <c r="C259" s="3">
-        <v>3.5999999999999997E-2</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="D259" t="s">
         <v>8</v>
@@ -5666,7 +5666,7 @@
         <v>12</v>
       </c>
       <c r="F259" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -5674,10 +5674,10 @@
         <v>44713</v>
       </c>
       <c r="B260" s="3">
-        <v>6.8000000000000005E-2</v>
+        <v>6.8000000000000007</v>
       </c>
       <c r="C260" s="3">
-        <v>3.5999999999999997E-2</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="D260" t="s">
         <v>8</v>
@@ -5686,7 +5686,7 @@
         <v>12</v>
       </c>
       <c r="F260" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="261" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -5694,10 +5694,10 @@
         <v>44743</v>
       </c>
       <c r="B261" s="3">
-        <v>6.8000000000000005E-2</v>
+        <v>6.8000000000000007</v>
       </c>
       <c r="C261" s="3">
-        <v>3.5000000000000003E-2</v>
+        <v>3.5000000000000004</v>
       </c>
       <c r="D261" t="s">
         <v>8</v>
@@ -5706,7 +5706,7 @@
         <v>12</v>
       </c>
       <c r="F261" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -5714,10 +5714,10 @@
         <v>44774</v>
       </c>
       <c r="B262" s="3">
-        <v>6.3E-2</v>
+        <v>6.3</v>
       </c>
       <c r="C262" s="3">
-        <v>3.6999999999999998E-2</v>
+        <v>3.6999999999999997</v>
       </c>
       <c r="D262" t="s">
         <v>8</v>
@@ -5726,7 +5726,7 @@
         <v>12</v>
       </c>
       <c r="F262" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -5734,10 +5734,10 @@
         <v>44805</v>
       </c>
       <c r="B263" s="3">
-        <v>6.5000000000000002E-2</v>
+        <v>6.5</v>
       </c>
       <c r="C263" s="3">
-        <v>3.5000000000000003E-2</v>
+        <v>3.5000000000000004</v>
       </c>
       <c r="D263" t="s">
         <v>8</v>
@@ -5746,7 +5746,7 @@
         <v>12</v>
       </c>
       <c r="F263" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -5754,10 +5754,10 @@
         <v>44835</v>
       </c>
       <c r="B264" s="3">
-        <v>6.4000000000000001E-2</v>
+        <v>6.4</v>
       </c>
       <c r="C264" s="3">
-        <v>3.6999999999999998E-2</v>
+        <v>3.6999999999999997</v>
       </c>
       <c r="D264" t="s">
         <v>8</v>
@@ -5766,7 +5766,7 @@
         <v>12</v>
       </c>
       <c r="F264" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -5774,10 +5774,10 @@
         <v>44866</v>
       </c>
       <c r="B265" s="3">
-        <v>6.4000000000000001E-2</v>
+        <v>6.4</v>
       </c>
       <c r="C265" s="3">
-        <v>3.5999999999999997E-2</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="D265" t="s">
         <v>8</v>
@@ -5786,7 +5786,7 @@
         <v>12</v>
       </c>
       <c r="F265" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -5794,10 +5794,10 @@
         <v>44896</v>
       </c>
       <c r="B266" s="3">
-        <v>6.7000000000000004E-2</v>
+        <v>6.7</v>
       </c>
       <c r="C266" s="3">
-        <v>3.5000000000000003E-2</v>
+        <v>3.5000000000000004</v>
       </c>
       <c r="D266" t="s">
         <v>8</v>
@@ -5806,7 +5806,7 @@
         <v>12</v>
       </c>
       <c r="F266" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
